--- a/resultatsEvscape.xlsx
+++ b/resultatsEvscape.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="36">
   <si>
     <t>Boudlal</t>
   </si>
@@ -23,28 +23,76 @@
     <t>Khalid</t>
   </si>
   <si>
+    <t>abstention</t>
+  </si>
+  <si>
     <t>reponseC</t>
   </si>
   <si>
+    <t>reponseB</t>
+  </si>
+  <si>
+    <t>Reponse1Spec1</t>
+  </si>
+  <si>
+    <t>responseA</t>
+  </si>
+  <si>
+    <t>Reponse7Spec1</t>
+  </si>
+  <si>
+    <t>Reponse8Spec1</t>
+  </si>
+  <si>
+    <t>Reponse9Spec1</t>
+  </si>
+  <si>
+    <t>Reponse10Spec1</t>
+  </si>
+  <si>
+    <t>Gisele</t>
+  </si>
+  <si>
+    <t>Giligi</t>
+  </si>
+  <si>
+    <t>Reponse3Spec1</t>
+  </si>
+  <si>
+    <t>Reponse4Spec1</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>Reponse5Spec1</t>
+  </si>
+  <si>
     <t>Reponse2Spec1</t>
   </si>
   <si>
-    <t>responseA</t>
-  </si>
-  <si>
-    <t>reponseB</t>
-  </si>
-  <si>
-    <t>Reponse7Spec1</t>
-  </si>
-  <si>
-    <t>Reponse10Spec1</t>
-  </si>
-  <si>
-    <t>Reponse1Spec1</t>
-  </si>
-  <si>
-    <t>Reponse3Spec1</t>
+    <t>Gele</t>
+  </si>
+  <si>
+    <t>Gigi</t>
+  </si>
+  <si>
+    <t>Reponse6Spec1</t>
+  </si>
+  <si>
+    <t>Patrke</t>
+  </si>
+  <si>
+    <t>Klert</t>
+  </si>
+  <si>
+    <t>Berrd</t>
+  </si>
+  <si>
+    <t>Aert</t>
   </si>
   <si>
     <t>Tozer</t>
@@ -53,36 +101,18 @@
     <t>Elie</t>
   </si>
   <si>
-    <t>Reponse6Spec1</t>
-  </si>
-  <si>
-    <t>Reponse8Spec1</t>
-  </si>
-  <si>
     <t>Lita</t>
   </si>
   <si>
     <t>Zoe</t>
   </si>
   <si>
-    <t>Reponse4Spec1</t>
-  </si>
-  <si>
-    <t>Reponse9Spec1</t>
-  </si>
-  <si>
     <t>toto</t>
   </si>
   <si>
     <t>litoe</t>
   </si>
   <si>
-    <t>Gisele</t>
-  </si>
-  <si>
-    <t>Giligi</t>
-  </si>
-  <si>
     <t>Patricke</t>
   </si>
   <si>
@@ -93,33 +123,6 @@
   </si>
   <si>
     <t>Albert</t>
-  </si>
-  <si>
-    <t>Reponse5Spec1</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>lie</t>
-  </si>
-  <si>
-    <t>Gele</t>
-  </si>
-  <si>
-    <t>Gigi</t>
-  </si>
-  <si>
-    <t>Patrke</t>
-  </si>
-  <si>
-    <t>Klert</t>
-  </si>
-  <si>
-    <t>Berrd</t>
-  </si>
-  <si>
-    <t>Aert</t>
   </si>
 </sst>
 </file>
@@ -459,13 +462,13 @@
   <sheetData>
     <row r="30" spans="1:24">
       <c r="A30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -474,146 +477,146 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s">
         <v>13</v>
       </c>
-      <c r="M30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="R30" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" t="s">
         <v>7</v>
       </c>
-      <c r="O30" t="s">
-        <v>8</v>
-      </c>
-      <c r="P30" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="V30" t="s">
+        <v>2</v>
+      </c>
+      <c r="W30" t="s">
         <v>9</v>
       </c>
-      <c r="R30" t="s">
-        <v>4</v>
-      </c>
-      <c r="S30" t="s">
-        <v>26</v>
-      </c>
-      <c r="T30" t="s">
-        <v>5</v>
-      </c>
-      <c r="U30" t="s">
-        <v>6</v>
-      </c>
-      <c r="V30" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" t="s">
-        <v>17</v>
-      </c>
       <c r="X30" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O31" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" t="s">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" t="s">
         <v>8</v>
       </c>
-      <c r="P31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>4</v>
-      </c>
-      <c r="R31" t="s">
-        <v>16</v>
-      </c>
-      <c r="S31" t="s">
-        <v>26</v>
-      </c>
-      <c r="T31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" t="s">
-        <v>2</v>
-      </c>
-      <c r="V31" t="s">
-        <v>13</v>
-      </c>
       <c r="W31" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="X31" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -622,72 +625,72 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G32" t="s">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
         <v>5</v>
       </c>
-      <c r="K32" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" t="s">
-        <v>2</v>
-      </c>
-      <c r="N32" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" t="s">
-        <v>8</v>
-      </c>
       <c r="P32" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R32" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S32" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="T32" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="U32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V32" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="W32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -696,135 +699,135 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S33" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="T33" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V33" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="W33" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="X33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34" t="s">
+        <v>14</v>
+      </c>
+      <c r="S34" t="s">
+        <v>17</v>
+      </c>
+      <c r="T34" t="s">
+        <v>2</v>
+      </c>
+      <c r="U34" t="s">
+        <v>2</v>
+      </c>
+      <c r="V34" t="s">
         <v>8</v>
       </c>
-      <c r="F34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" t="s">
-        <v>4</v>
-      </c>
-      <c r="L34" t="s">
-        <v>13</v>
-      </c>
-      <c r="M34" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O34" t="s">
-        <v>2</v>
-      </c>
-      <c r="P34" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>9</v>
-      </c>
-      <c r="R34" t="s">
-        <v>5</v>
-      </c>
-      <c r="S34" t="s">
-        <v>4</v>
-      </c>
-      <c r="T34" t="s">
-        <v>2</v>
-      </c>
-      <c r="U34" t="s">
-        <v>6</v>
-      </c>
-      <c r="V34" t="s">
-        <v>13</v>
-      </c>
       <c r="W34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X34" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -857,280 +860,280 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
       </c>
       <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
         <v>5</v>
       </c>
-      <c r="J24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" t="s">
         <v>7</v>
       </c>
-      <c r="O24" t="s">
+      <c r="V24" t="s">
         <v>8</v>
       </c>
-      <c r="P24" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="W24" t="s">
         <v>9</v>
       </c>
-      <c r="R24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" t="s">
-        <v>6</v>
-      </c>
-      <c r="V24" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" t="s">
-        <v>2</v>
-      </c>
       <c r="X24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s">
         <v>13</v>
       </c>
-      <c r="M25" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O25" t="s">
-        <v>8</v>
-      </c>
-      <c r="P25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>2</v>
-      </c>
       <c r="R25" t="s">
         <v>2</v>
       </c>
       <c r="S25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26" t="s">
         <v>2</v>
       </c>
       <c r="L26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M26" t="s">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" t="s">
         <v>8</v>
       </c>
-      <c r="P26" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R26" t="s">
-        <v>16</v>
-      </c>
-      <c r="S26" t="s">
-        <v>2</v>
-      </c>
-      <c r="T26" t="s">
-        <v>4</v>
-      </c>
-      <c r="U26" t="s">
-        <v>6</v>
-      </c>
-      <c r="V26" t="s">
-        <v>13</v>
-      </c>
       <c r="W26" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="X26" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" t="s">
         <v>8</v>
       </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="W27" t="s">
         <v>9</v>
-      </c>
-      <c r="H27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" t="s">
-        <v>8</v>
-      </c>
-      <c r="P27" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>9</v>
-      </c>
-      <c r="R27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" t="s">
-        <v>4</v>
-      </c>
-      <c r="U27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V27" t="s">
-        <v>13</v>
-      </c>
-      <c r="W27" t="s">
-        <v>17</v>
       </c>
       <c r="X27" t="s">
         <v>2</v>
@@ -1138,87 +1141,87 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>4</v>
       </c>
       <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
         <v>5</v>
       </c>
-      <c r="H28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="P28" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s">
         <v>13</v>
       </c>
-      <c r="M28" t="s">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>2</v>
-      </c>
-      <c r="O28" t="s">
-        <v>4</v>
-      </c>
-      <c r="P28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" t="s">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V28" t="s">
+        <v>2</v>
+      </c>
+      <c r="W28" t="s">
         <v>9</v>
       </c>
-      <c r="R28" t="s">
-        <v>2</v>
-      </c>
-      <c r="S28" t="s">
-        <v>5</v>
-      </c>
-      <c r="T28" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" t="s">
-        <v>2</v>
-      </c>
-      <c r="V28" t="s">
-        <v>13</v>
-      </c>
-      <c r="W28" t="s">
-        <v>2</v>
-      </c>
       <c r="X28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -1227,61 +1230,61 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L29" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M29" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N29" t="s">
         <v>2</v>
       </c>
       <c r="O29" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P29" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q29" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" t="s">
+        <v>7</v>
+      </c>
+      <c r="V29" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" t="s">
         <v>9</v>
       </c>
-      <c r="R29" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" t="s">
-        <v>4</v>
-      </c>
-      <c r="T29" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" t="s">
-        <v>6</v>
-      </c>
-      <c r="V29" t="s">
-        <v>13</v>
-      </c>
-      <c r="W29" t="s">
-        <v>17</v>
-      </c>
       <c r="X29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/resultatsEvscape.xlsx
+++ b/resultatsEvscape.xlsx
@@ -17,69 +17,102 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="36">
   <si>
+    <t>Boudlal</t>
+  </si>
+  <si>
+    <t>Khalid</t>
+  </si>
+  <si>
+    <t>reponseB</t>
+  </si>
+  <si>
+    <t>abstention</t>
+  </si>
+  <si>
+    <t>Reponse4Spec1</t>
+  </si>
+  <si>
+    <t>reponseC</t>
+  </si>
+  <si>
+    <t>responseA</t>
+  </si>
+  <si>
+    <t>Reponse1Spec1</t>
+  </si>
+  <si>
+    <t>Reponse2Spec1</t>
+  </si>
+  <si>
+    <t>Reponse3Spec1</t>
+  </si>
+  <si>
+    <t>Reponse5Spec1</t>
+  </si>
+  <si>
+    <t>Reponse6Spec1</t>
+  </si>
+  <si>
+    <t>Reponse8Spec1</t>
+  </si>
+  <si>
+    <t>Reponse9Spec1</t>
+  </si>
+  <si>
     <t>toto</t>
   </si>
   <si>
     <t>litoe</t>
   </si>
   <si>
-    <t>responseA</t>
-  </si>
-  <si>
-    <t>reponseC</t>
-  </si>
-  <si>
-    <t>reponseB</t>
-  </si>
-  <si>
-    <t>abstention</t>
-  </si>
-  <si>
-    <t>Reponse1Spec1</t>
-  </si>
-  <si>
-    <t>Reponse2Spec1</t>
-  </si>
-  <si>
-    <t>Reponse4Spec1</t>
-  </si>
-  <si>
-    <t>Reponse8Spec1</t>
-  </si>
-  <si>
-    <t>Reponse9Spec1</t>
-  </si>
-  <si>
     <t>Reponse10Spec1</t>
   </si>
   <si>
+    <t>Reponse7Spec1</t>
+  </si>
+  <si>
     <t>Gisele</t>
   </si>
   <si>
     <t>Giligi</t>
   </si>
   <si>
-    <t>Reponse5Spec1</t>
-  </si>
-  <si>
-    <t>Reponse7Spec1</t>
-  </si>
-  <si>
     <t>Bernard</t>
   </si>
   <si>
     <t>Albert</t>
   </si>
   <si>
-    <t>Reponse3Spec1</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
     <t>lie</t>
   </si>
   <si>
+    <t>Patrke</t>
+  </si>
+  <si>
+    <t>Klert</t>
+  </si>
+  <si>
+    <t>Tozer</t>
+  </si>
+  <si>
+    <t>Elie</t>
+  </si>
+  <si>
+    <t>Lita</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Patricke</t>
+  </si>
+  <si>
+    <t>Kluivert</t>
+  </si>
+  <si>
     <t>Gele</t>
   </si>
   <si>
@@ -90,39 +123,6 @@
   </si>
   <si>
     <t>Aert</t>
-  </si>
-  <si>
-    <t>Reponse6Spec1</t>
-  </si>
-  <si>
-    <t>Boudlal</t>
-  </si>
-  <si>
-    <t>Khalid</t>
-  </si>
-  <si>
-    <t>Tozer</t>
-  </si>
-  <si>
-    <t>Elie</t>
-  </si>
-  <si>
-    <t>Lita</t>
-  </si>
-  <si>
-    <t>Zoe</t>
-  </si>
-  <si>
-    <t>Patricke</t>
-  </si>
-  <si>
-    <t>Kluivert</t>
-  </si>
-  <si>
-    <t>Patrke</t>
-  </si>
-  <si>
-    <t>Klert</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <sheetData>
     <row r="30" spans="1:24">
       <c r="A30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -474,69 +474,69 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L30" t="s">
         <v>3</v>
       </c>
       <c r="M30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N30" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R30" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W30" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
@@ -548,69 +548,69 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
         <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R31" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S31" t="s">
         <v>5</v>
       </c>
       <c r="T31" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V31" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X31" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -622,69 +622,69 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32" t="s">
         <v>5</v>
       </c>
       <c r="L32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M32" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U32" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="V32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X32" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -696,69 +696,69 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J33" t="s">
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q33" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R33" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S33" t="s">
         <v>2</v>
       </c>
       <c r="T33" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U33" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="V33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W33" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X33" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -770,64 +770,64 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" t="s">
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M34" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q34" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="R34" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S34" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T34" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="W34" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="X34" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +845,7 @@
   <sheetData>
     <row r="24" spans="1:24">
       <c r="A24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -863,265 +863,265 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
         <v>4</v>
       </c>
-      <c r="H24" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" t="s">
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24" t="s">
         <v>5</v>
       </c>
       <c r="L24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q24" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R24" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S24" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T24" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="U24" t="s">
         <v>5</v>
       </c>
       <c r="V24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X24" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M25" t="s">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V25" t="s">
         <v>5</v>
       </c>
       <c r="W25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N26" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U26" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X26" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O27" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T27" t="s">
         <v>5</v>
@@ -1130,98 +1130,98 @@
         <v>5</v>
       </c>
       <c r="V27" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X27" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
         <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q28" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="U28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V28" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -1230,61 +1230,61 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J29" t="s">
         <v>3</v>
       </c>
       <c r="K29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L29" t="s">
         <v>3</v>
       </c>
       <c r="M29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O29" t="s">
         <v>6</v>
       </c>
       <c r="P29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="U29" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="V29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W29" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="X29" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/resultatsEvscape.xlsx
+++ b/resultatsEvscape.xlsx
@@ -17,64 +17,88 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="36">
   <si>
+    <t>Tozer</t>
+  </si>
+  <si>
+    <t>Elie</t>
+  </si>
+  <si>
+    <t>Reponse1Spec1</t>
+  </si>
+  <si>
+    <t>reponseC</t>
+  </si>
+  <si>
+    <t>responseA</t>
+  </si>
+  <si>
+    <t>abstention</t>
+  </si>
+  <si>
+    <t>reponseB</t>
+  </si>
+  <si>
+    <t>Reponse3Spec1</t>
+  </si>
+  <si>
+    <t>Reponse7Spec1</t>
+  </si>
+  <si>
+    <t>Reponse9Spec1</t>
+  </si>
+  <si>
+    <t>toto</t>
+  </si>
+  <si>
+    <t>litoe</t>
+  </si>
+  <si>
+    <t>Reponse2Spec1</t>
+  </si>
+  <si>
+    <t>Reponse6Spec1</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>Reponse10Spec1</t>
+  </si>
+  <si>
     <t>Boudlal</t>
   </si>
   <si>
     <t>Khalid</t>
   </si>
   <si>
-    <t>reponseB</t>
-  </si>
-  <si>
-    <t>abstention</t>
-  </si>
-  <si>
     <t>Reponse4Spec1</t>
   </si>
   <si>
-    <t>reponseC</t>
-  </si>
-  <si>
-    <t>responseA</t>
-  </si>
-  <si>
-    <t>Reponse1Spec1</t>
-  </si>
-  <si>
-    <t>Reponse2Spec1</t>
-  </si>
-  <si>
-    <t>Reponse3Spec1</t>
+    <t>Lita</t>
+  </si>
+  <si>
+    <t>Zoe</t>
   </si>
   <si>
     <t>Reponse5Spec1</t>
   </si>
   <si>
-    <t>Reponse6Spec1</t>
+    <t>Gisele</t>
+  </si>
+  <si>
+    <t>Giligi</t>
   </si>
   <si>
     <t>Reponse8Spec1</t>
   </si>
   <si>
-    <t>Reponse9Spec1</t>
-  </si>
-  <si>
-    <t>toto</t>
-  </si>
-  <si>
-    <t>litoe</t>
-  </si>
-  <si>
-    <t>Reponse10Spec1</t>
-  </si>
-  <si>
-    <t>Reponse7Spec1</t>
-  </si>
-  <si>
-    <t>Gisele</t>
-  </si>
-  <si>
-    <t>Giligi</t>
+    <t>Patricke</t>
+  </si>
+  <si>
+    <t>Kluivert</t>
   </si>
   <si>
     <t>Bernard</t>
@@ -83,40 +107,16 @@
     <t>Albert</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>lie</t>
+    <t>Gele</t>
+  </si>
+  <si>
+    <t>Gigi</t>
   </si>
   <si>
     <t>Patrke</t>
   </si>
   <si>
     <t>Klert</t>
-  </si>
-  <si>
-    <t>Tozer</t>
-  </si>
-  <si>
-    <t>Elie</t>
-  </si>
-  <si>
-    <t>Lita</t>
-  </si>
-  <si>
-    <t>Zoe</t>
-  </si>
-  <si>
-    <t>Patricke</t>
-  </si>
-  <si>
-    <t>Kluivert</t>
-  </si>
-  <si>
-    <t>Gele</t>
-  </si>
-  <si>
-    <t>Gigi</t>
   </si>
   <si>
     <t>Berrd</t>
@@ -454,15 +454,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A30:X34"/>
+  <dimension ref="A27:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="27" spans="1:24">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s">
+        <v>6</v>
+      </c>
+      <c r="U27" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" t="s">
+        <v>6</v>
+      </c>
+      <c r="W27" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S28" t="s">
+        <v>22</v>
+      </c>
+      <c r="T28" t="s">
+        <v>5</v>
+      </c>
+      <c r="U28" t="s">
+        <v>8</v>
+      </c>
+      <c r="V28" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28" t="s">
+        <v>5</v>
+      </c>
+      <c r="X28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" t="s">
+        <v>25</v>
+      </c>
+      <c r="W29" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="30" spans="1:24">
       <c r="A30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -474,69 +696,69 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>7</v>
+      </c>
+      <c r="R30" t="s">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s">
+        <v>5</v>
+      </c>
+      <c r="U30" t="s">
         <v>8</v>
       </c>
-      <c r="G30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" t="s">
-        <v>3</v>
-      </c>
-      <c r="L30" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" t="s">
-        <v>6</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="V30" t="s">
+        <v>25</v>
+      </c>
+      <c r="W30" t="s">
+        <v>3</v>
+      </c>
+      <c r="X30" t="s">
         <v>16</v>
-      </c>
-      <c r="O30" t="s">
-        <v>3</v>
-      </c>
-      <c r="P30" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>5</v>
-      </c>
-      <c r="R30" t="s">
-        <v>3</v>
-      </c>
-      <c r="S30" t="s">
-        <v>2</v>
-      </c>
-      <c r="T30" t="s">
-        <v>6</v>
-      </c>
-      <c r="U30" t="s">
-        <v>5</v>
-      </c>
-      <c r="V30" t="s">
-        <v>3</v>
-      </c>
-      <c r="W30" t="s">
-        <v>3</v>
-      </c>
-      <c r="X30" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
@@ -548,61 +770,61 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31" t="s">
         <v>2</v>
       </c>
-      <c r="H31" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L31" t="s">
-        <v>3</v>
-      </c>
-      <c r="M31" t="s">
-        <v>2</v>
-      </c>
-      <c r="N31" t="s">
-        <v>3</v>
-      </c>
-      <c r="O31" t="s">
-        <v>3</v>
-      </c>
       <c r="P31" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q31" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R31" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="S31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="V31" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="W31" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="X31" t="s">
         <v>16</v>
@@ -610,7 +832,7 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -622,61 +844,61 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" t="s">
         <v>2</v>
       </c>
-      <c r="J32" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" t="s">
-        <v>6</v>
-      </c>
-      <c r="N32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O32" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s">
         <v>5</v>
       </c>
       <c r="U32" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="V32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W32" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="X32" t="s">
         <v>16</v>
@@ -684,7 +906,7 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -696,64 +918,64 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L33" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" t="s">
         <v>12</v>
       </c>
-      <c r="M33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" t="s">
-        <v>8</v>
-      </c>
       <c r="Q33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U33" t="s">
         <v>3</v>
       </c>
       <c r="V33" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="W33" t="s">
         <v>5</v>
       </c>
       <c r="X33" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -770,61 +992,61 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" t="s">
+        <v>2</v>
+      </c>
+      <c r="P34" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>6</v>
+      </c>
+      <c r="R34" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s">
+        <v>13</v>
+      </c>
+      <c r="U34" t="s">
+        <v>8</v>
+      </c>
+      <c r="V34" t="s">
+        <v>25</v>
+      </c>
+      <c r="W34" t="s">
         <v>9</v>
-      </c>
-      <c r="H34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" t="s">
-        <v>2</v>
-      </c>
-      <c r="J34" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" t="s">
-        <v>13</v>
-      </c>
-      <c r="N34" t="s">
-        <v>3</v>
-      </c>
-      <c r="O34" t="s">
-        <v>7</v>
-      </c>
-      <c r="P34" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>5</v>
-      </c>
-      <c r="R34" t="s">
-        <v>3</v>
-      </c>
-      <c r="S34" t="s">
-        <v>10</v>
-      </c>
-      <c r="T34" t="s">
-        <v>6</v>
-      </c>
-      <c r="U34" t="s">
-        <v>3</v>
-      </c>
-      <c r="V34" t="s">
-        <v>5</v>
-      </c>
-      <c r="W34" t="s">
-        <v>13</v>
       </c>
       <c r="X34" t="s">
         <v>16</v>
@@ -837,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A24:X29"/>
+  <dimension ref="A24:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -845,7 +1067,7 @@
   <sheetData>
     <row r="24" spans="1:24">
       <c r="A24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -863,58 +1085,58 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O24" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s">
         <v>7</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="V24" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" t="s">
         <v>9</v>
       </c>
-      <c r="R24" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" t="s">
-        <v>10</v>
-      </c>
-      <c r="T24" t="s">
-        <v>11</v>
-      </c>
-      <c r="U24" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" t="s">
-        <v>12</v>
-      </c>
-      <c r="W24" t="s">
-        <v>13</v>
-      </c>
       <c r="X24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -922,70 +1144,70 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M25" t="s">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P25" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q25" t="s">
         <v>3</v>
       </c>
       <c r="R25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="U25" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="V25" t="s">
         <v>5</v>
       </c>
       <c r="W25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X25" t="s">
         <v>3</v>
@@ -993,297 +1215,75 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
         <v>3</v>
       </c>
       <c r="O26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P26" t="s">
         <v>5</v>
       </c>
       <c r="Q26" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s">
+        <v>6</v>
+      </c>
+      <c r="U26" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" t="s">
         <v>9</v>
       </c>
-      <c r="R26" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" t="s">
-        <v>6</v>
-      </c>
-      <c r="U26" t="s">
-        <v>6</v>
-      </c>
-      <c r="V26" t="s">
-        <v>12</v>
-      </c>
-      <c r="W26" t="s">
-        <v>13</v>
-      </c>
       <c r="X26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" t="s">
-        <v>6</v>
-      </c>
-      <c r="O27" t="s">
-        <v>6</v>
-      </c>
-      <c r="P27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" t="s">
-        <v>6</v>
-      </c>
-      <c r="T27" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" t="s">
-        <v>6</v>
-      </c>
-      <c r="W27" t="s">
-        <v>6</v>
-      </c>
-      <c r="X27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" t="s">
-        <v>2</v>
-      </c>
-      <c r="N28" t="s">
-        <v>3</v>
-      </c>
-      <c r="O28" t="s">
-        <v>7</v>
-      </c>
-      <c r="P28" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>9</v>
-      </c>
-      <c r="R28" t="s">
-        <v>6</v>
-      </c>
-      <c r="S28" t="s">
-        <v>3</v>
-      </c>
-      <c r="T28" t="s">
-        <v>11</v>
-      </c>
-      <c r="U28" t="s">
-        <v>17</v>
-      </c>
-      <c r="V28" t="s">
-        <v>12</v>
-      </c>
-      <c r="W28" t="s">
-        <v>13</v>
-      </c>
-      <c r="X28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
-      <c r="A29">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" t="s">
-        <v>2</v>
-      </c>
-      <c r="N29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P29" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" t="s">
-        <v>6</v>
-      </c>
-      <c r="S29" t="s">
-        <v>3</v>
-      </c>
-      <c r="T29" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" t="s">
-        <v>3</v>
-      </c>
-      <c r="V29" t="s">
-        <v>12</v>
-      </c>
-      <c r="W29" t="s">
-        <v>13</v>
-      </c>
-      <c r="X29" t="s">
         <v>16</v>
       </c>
     </row>

--- a/resultatsEvscape.xlsx
+++ b/resultatsEvscape.xlsx
@@ -454,379 +454,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A162:X166"/>
+  <dimension ref="A228:X232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="162" spans="1:24">
-      <c r="A162">
-        <v>4</v>
-      </c>
-      <c r="B162" t="s">
+    <row r="228" spans="1:24">
+      <c r="A228">
+        <v>4</v>
+      </c>
+      <c r="B228" t="s">
         <v>26</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C228" t="s">
         <v>27</v>
       </c>
-      <c r="D162" t="b">
+      <c r="D228" t="b">
         <v>0</v>
       </c>
-      <c r="E162" t="s">
-        <v>2</v>
-      </c>
-      <c r="F162" t="s">
-        <v>2</v>
-      </c>
-      <c r="G162" t="s">
-        <v>2</v>
-      </c>
-      <c r="H162" t="s">
-        <v>2</v>
-      </c>
-      <c r="I162" t="s">
-        <v>4</v>
-      </c>
-      <c r="J162" t="s">
-        <v>2</v>
-      </c>
-      <c r="K162" t="s">
-        <v>2</v>
-      </c>
-      <c r="L162" t="s">
-        <v>3</v>
-      </c>
-      <c r="M162" t="s">
-        <v>4</v>
-      </c>
-      <c r="N162" t="s">
-        <v>2</v>
-      </c>
-      <c r="O162" t="s">
+      <c r="E228" t="s">
+        <v>2</v>
+      </c>
+      <c r="F228" t="s">
+        <v>2</v>
+      </c>
+      <c r="G228" t="s">
+        <v>2</v>
+      </c>
+      <c r="H228" t="s">
+        <v>2</v>
+      </c>
+      <c r="I228" t="s">
+        <v>4</v>
+      </c>
+      <c r="J228" t="s">
+        <v>2</v>
+      </c>
+      <c r="K228" t="s">
+        <v>2</v>
+      </c>
+      <c r="L228" t="s">
+        <v>3</v>
+      </c>
+      <c r="M228" t="s">
+        <v>4</v>
+      </c>
+      <c r="N228" t="s">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
         <v>16</v>
       </c>
-      <c r="P162" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q162" t="s">
+      <c r="P228" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q228" t="s">
         <v>6</v>
       </c>
-      <c r="R162" t="s">
+      <c r="R228" t="s">
         <v>7</v>
       </c>
-      <c r="S162" t="s">
-        <v>2</v>
-      </c>
-      <c r="T162" t="s">
-        <v>8</v>
-      </c>
-      <c r="U162" t="s">
+      <c r="S228" t="s">
+        <v>2</v>
+      </c>
+      <c r="T228" t="s">
+        <v>8</v>
+      </c>
+      <c r="U228" t="s">
         <v>17</v>
       </c>
-      <c r="V162" t="s">
+      <c r="V228" t="s">
         <v>18</v>
       </c>
-      <c r="W162" t="s">
+      <c r="W228" t="s">
         <v>15</v>
       </c>
-      <c r="X162" t="s">
+      <c r="X228" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:24">
-      <c r="A163">
+    <row r="229" spans="1:24">
+      <c r="A229">
         <v>7</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B229" t="s">
         <v>28</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C229" t="s">
         <v>29</v>
       </c>
-      <c r="D163" t="b">
+      <c r="D229" t="b">
         <v>0</v>
       </c>
-      <c r="E163" t="s">
-        <v>2</v>
-      </c>
-      <c r="F163" t="s">
-        <v>4</v>
-      </c>
-      <c r="G163" t="s">
-        <v>4</v>
-      </c>
-      <c r="H163" t="s">
-        <v>4</v>
-      </c>
-      <c r="I163" t="s">
-        <v>8</v>
-      </c>
-      <c r="J163" t="s">
-        <v>2</v>
-      </c>
-      <c r="K163" t="s">
-        <v>3</v>
-      </c>
-      <c r="L163" t="s">
+      <c r="E229" t="s">
+        <v>2</v>
+      </c>
+      <c r="F229" t="s">
+        <v>4</v>
+      </c>
+      <c r="G229" t="s">
+        <v>4</v>
+      </c>
+      <c r="H229" t="s">
+        <v>4</v>
+      </c>
+      <c r="I229" t="s">
+        <v>8</v>
+      </c>
+      <c r="J229" t="s">
+        <v>2</v>
+      </c>
+      <c r="K229" t="s">
+        <v>3</v>
+      </c>
+      <c r="L229" t="s">
         <v>18</v>
       </c>
-      <c r="M163" t="s">
-        <v>3</v>
-      </c>
-      <c r="N163" t="s">
-        <v>4</v>
-      </c>
-      <c r="O163" t="s">
-        <v>4</v>
-      </c>
-      <c r="P163" t="s">
+      <c r="M229" t="s">
+        <v>3</v>
+      </c>
+      <c r="N229" t="s">
+        <v>4</v>
+      </c>
+      <c r="O229" t="s">
+        <v>4</v>
+      </c>
+      <c r="P229" t="s">
         <v>5</v>
       </c>
-      <c r="Q163" t="s">
-        <v>2</v>
-      </c>
-      <c r="R163" t="s">
-        <v>3</v>
-      </c>
-      <c r="S163" t="s">
-        <v>3</v>
-      </c>
-      <c r="T163" t="s">
+      <c r="Q229" t="s">
+        <v>2</v>
+      </c>
+      <c r="R229" t="s">
+        <v>3</v>
+      </c>
+      <c r="S229" t="s">
+        <v>3</v>
+      </c>
+      <c r="T229" t="s">
         <v>9</v>
       </c>
-      <c r="U163" t="s">
+      <c r="U229" t="s">
         <v>17</v>
       </c>
-      <c r="V163" t="s">
-        <v>2</v>
-      </c>
-      <c r="W163" t="s">
+      <c r="V229" t="s">
+        <v>2</v>
+      </c>
+      <c r="W229" t="s">
         <v>15</v>
       </c>
-      <c r="X163" t="s">
+      <c r="X229" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:24">
-      <c r="A164">
+    <row r="230" spans="1:24">
+      <c r="A230">
         <v>9</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B230" t="s">
         <v>30</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C230" t="s">
         <v>31</v>
       </c>
-      <c r="D164" t="b">
+      <c r="D230" t="b">
         <v>0</v>
       </c>
-      <c r="E164" t="s">
-        <v>3</v>
-      </c>
-      <c r="F164" t="s">
-        <v>4</v>
-      </c>
-      <c r="G164" t="s">
-        <v>4</v>
-      </c>
-      <c r="H164" t="s">
-        <v>3</v>
-      </c>
-      <c r="I164" t="s">
-        <v>8</v>
-      </c>
-      <c r="J164" t="s">
-        <v>2</v>
-      </c>
-      <c r="K164" t="s">
+      <c r="E230" t="s">
+        <v>3</v>
+      </c>
+      <c r="F230" t="s">
+        <v>4</v>
+      </c>
+      <c r="G230" t="s">
+        <v>4</v>
+      </c>
+      <c r="H230" t="s">
+        <v>3</v>
+      </c>
+      <c r="I230" t="s">
+        <v>8</v>
+      </c>
+      <c r="J230" t="s">
+        <v>2</v>
+      </c>
+      <c r="K230" t="s">
         <v>17</v>
       </c>
-      <c r="L164" t="s">
-        <v>2</v>
-      </c>
-      <c r="M164" t="s">
-        <v>8</v>
-      </c>
-      <c r="N164" t="s">
-        <v>4</v>
-      </c>
-      <c r="O164" t="s">
+      <c r="L230" t="s">
+        <v>2</v>
+      </c>
+      <c r="M230" t="s">
+        <v>8</v>
+      </c>
+      <c r="N230" t="s">
+        <v>4</v>
+      </c>
+      <c r="O230" t="s">
         <v>16</v>
       </c>
-      <c r="P164" t="s">
+      <c r="P230" t="s">
         <v>5</v>
       </c>
-      <c r="Q164" t="s">
-        <v>2</v>
-      </c>
-      <c r="R164" t="s">
-        <v>4</v>
-      </c>
-      <c r="S164" t="s">
-        <v>4</v>
-      </c>
-      <c r="T164" t="s">
-        <v>4</v>
-      </c>
-      <c r="U164" t="s">
-        <v>2</v>
-      </c>
-      <c r="V164" t="s">
+      <c r="Q230" t="s">
+        <v>2</v>
+      </c>
+      <c r="R230" t="s">
+        <v>4</v>
+      </c>
+      <c r="S230" t="s">
+        <v>4</v>
+      </c>
+      <c r="T230" t="s">
+        <v>4</v>
+      </c>
+      <c r="U230" t="s">
+        <v>2</v>
+      </c>
+      <c r="V230" t="s">
         <v>18</v>
       </c>
-      <c r="W164" t="s">
-        <v>2</v>
-      </c>
-      <c r="X164" t="s">
+      <c r="W230" t="s">
+        <v>2</v>
+      </c>
+      <c r="X230" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:24">
-      <c r="A165">
+    <row r="231" spans="1:24">
+      <c r="A231">
         <v>10</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B231" t="s">
         <v>32</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C231" t="s">
         <v>33</v>
       </c>
-      <c r="D165" t="b">
+      <c r="D231" t="b">
         <v>0</v>
       </c>
-      <c r="E165" t="s">
-        <v>3</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="E231" t="s">
+        <v>3</v>
+      </c>
+      <c r="F231" t="s">
         <v>5</v>
       </c>
-      <c r="G165" t="s">
-        <v>3</v>
-      </c>
-      <c r="H165" t="s">
+      <c r="G231" t="s">
+        <v>3</v>
+      </c>
+      <c r="H231" t="s">
         <v>7</v>
       </c>
-      <c r="I165" t="s">
-        <v>2</v>
-      </c>
-      <c r="J165" t="s">
-        <v>2</v>
-      </c>
-      <c r="K165" t="s">
-        <v>3</v>
-      </c>
-      <c r="L165" t="s">
-        <v>2</v>
-      </c>
-      <c r="M165" t="s">
-        <v>4</v>
-      </c>
-      <c r="N165" t="s">
-        <v>2</v>
-      </c>
-      <c r="O165" t="s">
-        <v>2</v>
-      </c>
-      <c r="P165" t="s">
+      <c r="I231" t="s">
+        <v>2</v>
+      </c>
+      <c r="J231" t="s">
+        <v>2</v>
+      </c>
+      <c r="K231" t="s">
+        <v>3</v>
+      </c>
+      <c r="L231" t="s">
+        <v>2</v>
+      </c>
+      <c r="M231" t="s">
+        <v>4</v>
+      </c>
+      <c r="N231" t="s">
+        <v>2</v>
+      </c>
+      <c r="O231" t="s">
+        <v>2</v>
+      </c>
+      <c r="P231" t="s">
         <v>5</v>
       </c>
-      <c r="Q165" t="s">
-        <v>3</v>
-      </c>
-      <c r="R165" t="s">
-        <v>8</v>
-      </c>
-      <c r="S165" t="s">
-        <v>3</v>
-      </c>
-      <c r="T165" t="s">
-        <v>8</v>
-      </c>
-      <c r="U165" t="s">
+      <c r="Q231" t="s">
+        <v>3</v>
+      </c>
+      <c r="R231" t="s">
+        <v>8</v>
+      </c>
+      <c r="S231" t="s">
+        <v>3</v>
+      </c>
+      <c r="T231" t="s">
+        <v>8</v>
+      </c>
+      <c r="U231" t="s">
         <v>17</v>
       </c>
-      <c r="V165" t="s">
+      <c r="V231" t="s">
         <v>18</v>
       </c>
-      <c r="W165" t="s">
+      <c r="W231" t="s">
         <v>15</v>
       </c>
-      <c r="X165" t="s">
+      <c r="X231" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:24">
-      <c r="A166">
+    <row r="232" spans="1:24">
+      <c r="A232">
         <v>12</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B232" t="s">
         <v>34</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C232" t="s">
         <v>35</v>
       </c>
-      <c r="D166" t="b">
+      <c r="D232" t="b">
         <v>0</v>
       </c>
-      <c r="E166" t="s">
-        <v>2</v>
-      </c>
-      <c r="F166" t="s">
-        <v>2</v>
-      </c>
-      <c r="G166" t="s">
-        <v>3</v>
-      </c>
-      <c r="H166" t="s">
-        <v>3</v>
-      </c>
-      <c r="I166" t="s">
-        <v>3</v>
-      </c>
-      <c r="J166" t="s">
-        <v>2</v>
-      </c>
-      <c r="K166" t="s">
-        <v>4</v>
-      </c>
-      <c r="L166" t="s">
+      <c r="E232" t="s">
+        <v>2</v>
+      </c>
+      <c r="F232" t="s">
+        <v>2</v>
+      </c>
+      <c r="G232" t="s">
+        <v>3</v>
+      </c>
+      <c r="H232" t="s">
+        <v>3</v>
+      </c>
+      <c r="I232" t="s">
+        <v>3</v>
+      </c>
+      <c r="J232" t="s">
+        <v>2</v>
+      </c>
+      <c r="K232" t="s">
+        <v>4</v>
+      </c>
+      <c r="L232" t="s">
         <v>18</v>
       </c>
-      <c r="M166" t="s">
-        <v>8</v>
-      </c>
-      <c r="N166" t="s">
-        <v>3</v>
-      </c>
-      <c r="O166" t="s">
-        <v>2</v>
-      </c>
-      <c r="P166" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q166" t="s">
+      <c r="M232" t="s">
+        <v>8</v>
+      </c>
+      <c r="N232" t="s">
+        <v>3</v>
+      </c>
+      <c r="O232" t="s">
+        <v>2</v>
+      </c>
+      <c r="P232" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q232" t="s">
         <v>6</v>
       </c>
-      <c r="R166" t="s">
-        <v>2</v>
-      </c>
-      <c r="S166" t="s">
-        <v>3</v>
-      </c>
-      <c r="T166" t="s">
+      <c r="R232" t="s">
+        <v>2</v>
+      </c>
+      <c r="S232" t="s">
+        <v>3</v>
+      </c>
+      <c r="T232" t="s">
         <v>9</v>
       </c>
-      <c r="U166" t="s">
+      <c r="U232" t="s">
         <v>17</v>
       </c>
-      <c r="V166" t="s">
+      <c r="V232" t="s">
         <v>18</v>
       </c>
-      <c r="W166" t="s">
-        <v>2</v>
-      </c>
-      <c r="X166" t="s">
+      <c r="W232" t="s">
+        <v>2</v>
+      </c>
+      <c r="X232" t="s">
         <v>4</v>
       </c>
     </row>
@@ -837,453 +837,453 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A156:X161"/>
+  <dimension ref="A222:X227"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="156" spans="1:24">
-      <c r="A156">
-        <v>2</v>
-      </c>
-      <c r="B156" t="s">
+    <row r="222" spans="1:24">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="B222" t="s">
         <v>0</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C222" t="s">
         <v>1</v>
       </c>
-      <c r="D156" t="b">
+      <c r="D222" t="b">
         <v>1</v>
       </c>
-      <c r="E156" t="s">
-        <v>2</v>
-      </c>
-      <c r="F156" t="s">
-        <v>2</v>
-      </c>
-      <c r="G156" t="s">
-        <v>2</v>
-      </c>
-      <c r="H156" t="s">
-        <v>2</v>
-      </c>
-      <c r="I156" t="s">
-        <v>2</v>
-      </c>
-      <c r="J156" t="s">
-        <v>3</v>
-      </c>
-      <c r="K156" t="s">
-        <v>4</v>
-      </c>
-      <c r="L156" t="s">
-        <v>2</v>
-      </c>
-      <c r="M156" t="s">
-        <v>2</v>
-      </c>
-      <c r="N156" t="s">
-        <v>2</v>
-      </c>
-      <c r="O156" t="s">
-        <v>2</v>
-      </c>
-      <c r="P156" t="s">
+      <c r="E222" t="s">
+        <v>2</v>
+      </c>
+      <c r="F222" t="s">
+        <v>2</v>
+      </c>
+      <c r="G222" t="s">
+        <v>2</v>
+      </c>
+      <c r="H222" t="s">
+        <v>2</v>
+      </c>
+      <c r="I222" t="s">
+        <v>2</v>
+      </c>
+      <c r="J222" t="s">
+        <v>3</v>
+      </c>
+      <c r="K222" t="s">
+        <v>4</v>
+      </c>
+      <c r="L222" t="s">
+        <v>2</v>
+      </c>
+      <c r="M222" t="s">
+        <v>2</v>
+      </c>
+      <c r="N222" t="s">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>2</v>
+      </c>
+      <c r="P222" t="s">
         <v>5</v>
       </c>
-      <c r="Q156" t="s">
+      <c r="Q222" t="s">
         <v>6</v>
       </c>
-      <c r="R156" t="s">
+      <c r="R222" t="s">
         <v>7</v>
       </c>
-      <c r="S156" t="s">
-        <v>8</v>
-      </c>
-      <c r="T156" t="s">
+      <c r="S222" t="s">
+        <v>8</v>
+      </c>
+      <c r="T222" t="s">
         <v>9</v>
       </c>
-      <c r="U156" t="s">
-        <v>3</v>
-      </c>
-      <c r="V156" t="s">
-        <v>8</v>
-      </c>
-      <c r="W156" t="s">
-        <v>2</v>
-      </c>
-      <c r="X156" t="s">
+      <c r="U222" t="s">
+        <v>3</v>
+      </c>
+      <c r="V222" t="s">
+        <v>8</v>
+      </c>
+      <c r="W222" t="s">
+        <v>2</v>
+      </c>
+      <c r="X222" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:24">
-      <c r="A157">
-        <v>3</v>
-      </c>
-      <c r="B157" t="s">
+    <row r="223" spans="1:24">
+      <c r="A223">
+        <v>3</v>
+      </c>
+      <c r="B223" t="s">
         <v>11</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C223" t="s">
         <v>12</v>
       </c>
-      <c r="D157" t="b">
+      <c r="D223" t="b">
         <v>1</v>
       </c>
-      <c r="E157" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" t="s">
-        <v>3</v>
-      </c>
-      <c r="G157" t="s">
-        <v>2</v>
-      </c>
-      <c r="H157" t="s">
-        <v>2</v>
-      </c>
-      <c r="I157" t="s">
-        <v>2</v>
-      </c>
-      <c r="J157" t="s">
-        <v>4</v>
-      </c>
-      <c r="K157" t="s">
-        <v>2</v>
-      </c>
-      <c r="L157" t="s">
-        <v>3</v>
-      </c>
-      <c r="M157" t="s">
-        <v>2</v>
-      </c>
-      <c r="N157" t="s">
+      <c r="E223" t="s">
+        <v>4</v>
+      </c>
+      <c r="F223" t="s">
+        <v>3</v>
+      </c>
+      <c r="G223" t="s">
+        <v>2</v>
+      </c>
+      <c r="H223" t="s">
+        <v>2</v>
+      </c>
+      <c r="I223" t="s">
+        <v>2</v>
+      </c>
+      <c r="J223" t="s">
+        <v>4</v>
+      </c>
+      <c r="K223" t="s">
+        <v>2</v>
+      </c>
+      <c r="L223" t="s">
+        <v>3</v>
+      </c>
+      <c r="M223" t="s">
+        <v>2</v>
+      </c>
+      <c r="N223" t="s">
         <v>10</v>
       </c>
-      <c r="O157" t="s">
-        <v>4</v>
-      </c>
-      <c r="P157" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>8</v>
-      </c>
-      <c r="R157" t="s">
-        <v>2</v>
-      </c>
-      <c r="S157" t="s">
-        <v>2</v>
-      </c>
-      <c r="T157" t="s">
-        <v>2</v>
-      </c>
-      <c r="U157" t="s">
-        <v>3</v>
-      </c>
-      <c r="V157" t="s">
-        <v>2</v>
-      </c>
-      <c r="W157" t="s">
-        <v>8</v>
-      </c>
-      <c r="X157" t="s">
+      <c r="O223" t="s">
+        <v>4</v>
+      </c>
+      <c r="P223" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>8</v>
+      </c>
+      <c r="R223" t="s">
+        <v>2</v>
+      </c>
+      <c r="S223" t="s">
+        <v>2</v>
+      </c>
+      <c r="T223" t="s">
+        <v>2</v>
+      </c>
+      <c r="U223" t="s">
+        <v>3</v>
+      </c>
+      <c r="V223" t="s">
+        <v>2</v>
+      </c>
+      <c r="W223" t="s">
+        <v>8</v>
+      </c>
+      <c r="X223" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:24">
-      <c r="A158">
+    <row r="224" spans="1:24">
+      <c r="A224">
         <v>5</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B224" t="s">
         <v>13</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C224" t="s">
         <v>14</v>
       </c>
-      <c r="D158" t="b">
+      <c r="D224" t="b">
         <v>1</v>
       </c>
-      <c r="E158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F158" t="s">
-        <v>3</v>
-      </c>
-      <c r="G158" t="s">
-        <v>2</v>
-      </c>
-      <c r="H158" t="s">
+      <c r="E224" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224" t="s">
+        <v>3</v>
+      </c>
+      <c r="G224" t="s">
+        <v>2</v>
+      </c>
+      <c r="H224" t="s">
         <v>7</v>
       </c>
-      <c r="I158" t="s">
-        <v>4</v>
-      </c>
-      <c r="J158" t="s">
-        <v>2</v>
-      </c>
-      <c r="K158" t="s">
-        <v>4</v>
-      </c>
-      <c r="L158" t="s">
-        <v>2</v>
-      </c>
-      <c r="M158" t="s">
+      <c r="I224" t="s">
+        <v>4</v>
+      </c>
+      <c r="J224" t="s">
+        <v>2</v>
+      </c>
+      <c r="K224" t="s">
+        <v>4</v>
+      </c>
+      <c r="L224" t="s">
+        <v>2</v>
+      </c>
+      <c r="M224" t="s">
         <v>15</v>
       </c>
-      <c r="N158" t="s">
-        <v>2</v>
-      </c>
-      <c r="O158" t="s">
+      <c r="N224" t="s">
+        <v>2</v>
+      </c>
+      <c r="O224" t="s">
         <v>16</v>
       </c>
-      <c r="P158" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q158" t="s">
-        <v>2</v>
-      </c>
-      <c r="R158" t="s">
-        <v>2</v>
-      </c>
-      <c r="S158" t="s">
-        <v>8</v>
-      </c>
-      <c r="T158" t="s">
-        <v>4</v>
-      </c>
-      <c r="U158" t="s">
+      <c r="P224" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>2</v>
+      </c>
+      <c r="R224" t="s">
+        <v>2</v>
+      </c>
+      <c r="S224" t="s">
+        <v>8</v>
+      </c>
+      <c r="T224" t="s">
+        <v>4</v>
+      </c>
+      <c r="U224" t="s">
         <v>17</v>
       </c>
-      <c r="V158" t="s">
+      <c r="V224" t="s">
         <v>18</v>
       </c>
-      <c r="W158" t="s">
-        <v>3</v>
-      </c>
-      <c r="X158" t="s">
+      <c r="W224" t="s">
+        <v>3</v>
+      </c>
+      <c r="X224" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:24">
-      <c r="A159">
+    <row r="225" spans="1:24">
+      <c r="A225">
         <v>6</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B225" t="s">
         <v>19</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C225" t="s">
         <v>20</v>
       </c>
-      <c r="D159" t="b">
+      <c r="D225" t="b">
         <v>1</v>
       </c>
-      <c r="E159" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" t="s">
-        <v>2</v>
-      </c>
-      <c r="G159" t="s">
-        <v>4</v>
-      </c>
-      <c r="H159" t="s">
-        <v>2</v>
-      </c>
-      <c r="I159" t="s">
-        <v>2</v>
-      </c>
-      <c r="J159" t="s">
-        <v>2</v>
-      </c>
-      <c r="K159" t="s">
-        <v>2</v>
-      </c>
-      <c r="L159" t="s">
-        <v>3</v>
-      </c>
-      <c r="M159" t="s">
-        <v>2</v>
-      </c>
-      <c r="N159" t="s">
-        <v>2</v>
-      </c>
-      <c r="O159" t="s">
+      <c r="E225" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" t="s">
+        <v>2</v>
+      </c>
+      <c r="G225" t="s">
+        <v>4</v>
+      </c>
+      <c r="H225" t="s">
+        <v>2</v>
+      </c>
+      <c r="I225" t="s">
+        <v>2</v>
+      </c>
+      <c r="J225" t="s">
+        <v>2</v>
+      </c>
+      <c r="K225" t="s">
+        <v>2</v>
+      </c>
+      <c r="L225" t="s">
+        <v>3</v>
+      </c>
+      <c r="M225" t="s">
+        <v>2</v>
+      </c>
+      <c r="N225" t="s">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
         <v>16</v>
       </c>
-      <c r="P159" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>8</v>
-      </c>
-      <c r="R159" t="s">
-        <v>8</v>
-      </c>
-      <c r="S159" t="s">
-        <v>8</v>
-      </c>
-      <c r="T159" t="s">
-        <v>2</v>
-      </c>
-      <c r="U159" t="s">
+      <c r="P225" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>8</v>
+      </c>
+      <c r="R225" t="s">
+        <v>8</v>
+      </c>
+      <c r="S225" t="s">
+        <v>8</v>
+      </c>
+      <c r="T225" t="s">
+        <v>2</v>
+      </c>
+      <c r="U225" t="s">
         <v>17</v>
       </c>
-      <c r="V159" t="s">
-        <v>4</v>
-      </c>
-      <c r="W159" t="s">
+      <c r="V225" t="s">
+        <v>4</v>
+      </c>
+      <c r="W225" t="s">
         <v>15</v>
       </c>
-      <c r="X159" t="s">
+      <c r="X225" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:24">
-      <c r="A160">
-        <v>8</v>
-      </c>
-      <c r="B160" t="s">
+    <row r="226" spans="1:24">
+      <c r="A226">
+        <v>8</v>
+      </c>
+      <c r="B226" t="s">
         <v>21</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C226" t="s">
         <v>22</v>
       </c>
-      <c r="D160" t="b">
+      <c r="D226" t="b">
         <v>1</v>
       </c>
-      <c r="E160" t="s">
-        <v>2</v>
-      </c>
-      <c r="F160" t="s">
-        <v>4</v>
-      </c>
-      <c r="G160" t="s">
+      <c r="E226" t="s">
+        <v>2</v>
+      </c>
+      <c r="F226" t="s">
+        <v>4</v>
+      </c>
+      <c r="G226" t="s">
         <v>6</v>
       </c>
-      <c r="H160" t="s">
-        <v>2</v>
-      </c>
-      <c r="I160" t="s">
-        <v>2</v>
-      </c>
-      <c r="J160" t="s">
-        <v>3</v>
-      </c>
-      <c r="K160" t="s">
-        <v>2</v>
-      </c>
-      <c r="L160" t="s">
-        <v>4</v>
-      </c>
-      <c r="M160" t="s">
+      <c r="H226" t="s">
+        <v>2</v>
+      </c>
+      <c r="I226" t="s">
+        <v>2</v>
+      </c>
+      <c r="J226" t="s">
+        <v>3</v>
+      </c>
+      <c r="K226" t="s">
+        <v>2</v>
+      </c>
+      <c r="L226" t="s">
+        <v>4</v>
+      </c>
+      <c r="M226" t="s">
         <v>15</v>
       </c>
-      <c r="N160" t="s">
-        <v>2</v>
-      </c>
-      <c r="O160" t="s">
-        <v>3</v>
-      </c>
-      <c r="P160" t="s">
+      <c r="N226" t="s">
+        <v>2</v>
+      </c>
+      <c r="O226" t="s">
+        <v>3</v>
+      </c>
+      <c r="P226" t="s">
         <v>5</v>
       </c>
-      <c r="Q160" t="s">
+      <c r="Q226" t="s">
         <v>6</v>
       </c>
-      <c r="R160" t="s">
-        <v>4</v>
-      </c>
-      <c r="S160" t="s">
+      <c r="R226" t="s">
+        <v>4</v>
+      </c>
+      <c r="S226" t="s">
         <v>23</v>
       </c>
-      <c r="T160" t="s">
-        <v>2</v>
-      </c>
-      <c r="U160" t="s">
+      <c r="T226" t="s">
+        <v>2</v>
+      </c>
+      <c r="U226" t="s">
         <v>17</v>
       </c>
-      <c r="V160" t="s">
+      <c r="V226" t="s">
         <v>18</v>
       </c>
-      <c r="W160" t="s">
-        <v>2</v>
-      </c>
-      <c r="X160" t="s">
+      <c r="W226" t="s">
+        <v>2</v>
+      </c>
+      <c r="X226" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:24">
-      <c r="A161">
+    <row r="227" spans="1:24">
+      <c r="A227">
         <v>11</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B227" t="s">
         <v>24</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C227" t="s">
         <v>25</v>
       </c>
-      <c r="D161" t="b">
+      <c r="D227" t="b">
         <v>1</v>
       </c>
-      <c r="E161" t="s">
-        <v>2</v>
-      </c>
-      <c r="F161" t="s">
-        <v>4</v>
-      </c>
-      <c r="G161" t="s">
-        <v>3</v>
-      </c>
-      <c r="H161" t="s">
-        <v>2</v>
-      </c>
-      <c r="I161" t="s">
-        <v>2</v>
-      </c>
-      <c r="J161" t="s">
-        <v>3</v>
-      </c>
-      <c r="K161" t="s">
-        <v>3</v>
-      </c>
-      <c r="L161" t="s">
-        <v>3</v>
-      </c>
-      <c r="M161" t="s">
-        <v>8</v>
-      </c>
-      <c r="N161" t="s">
+      <c r="E227" t="s">
+        <v>2</v>
+      </c>
+      <c r="F227" t="s">
+        <v>4</v>
+      </c>
+      <c r="G227" t="s">
+        <v>3</v>
+      </c>
+      <c r="H227" t="s">
+        <v>2</v>
+      </c>
+      <c r="I227" t="s">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>3</v>
+      </c>
+      <c r="K227" t="s">
+        <v>3</v>
+      </c>
+      <c r="L227" t="s">
+        <v>3</v>
+      </c>
+      <c r="M227" t="s">
+        <v>8</v>
+      </c>
+      <c r="N227" t="s">
         <v>10</v>
       </c>
-      <c r="O161" t="s">
-        <v>2</v>
-      </c>
-      <c r="P161" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q161" t="s">
+      <c r="O227" t="s">
+        <v>2</v>
+      </c>
+      <c r="P227" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q227" t="s">
         <v>6</v>
       </c>
-      <c r="R161" t="s">
-        <v>2</v>
-      </c>
-      <c r="S161" t="s">
+      <c r="R227" t="s">
+        <v>2</v>
+      </c>
+      <c r="S227" t="s">
         <v>23</v>
       </c>
-      <c r="T161" t="s">
-        <v>2</v>
-      </c>
-      <c r="U161" t="s">
-        <v>2</v>
-      </c>
-      <c r="V161" t="s">
+      <c r="T227" t="s">
+        <v>2</v>
+      </c>
+      <c r="U227" t="s">
+        <v>2</v>
+      </c>
+      <c r="V227" t="s">
         <v>18</v>
       </c>
-      <c r="W161" t="s">
-        <v>3</v>
-      </c>
-      <c r="X161" t="s">
+      <c r="W227" t="s">
+        <v>3</v>
+      </c>
+      <c r="X227" t="s">
         <v>10</v>
       </c>
     </row>

--- a/resultatsEvscape.xlsx
+++ b/resultatsEvscape.xlsx
@@ -454,379 +454,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A228:X232"/>
+  <dimension ref="A239:X243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="228" spans="1:24">
-      <c r="A228">
-        <v>4</v>
-      </c>
-      <c r="B228" t="s">
+    <row r="239" spans="1:24">
+      <c r="A239">
+        <v>4</v>
+      </c>
+      <c r="B239" t="s">
         <v>26</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C239" t="s">
         <v>27</v>
       </c>
-      <c r="D228" t="b">
+      <c r="D239" t="b">
         <v>0</v>
       </c>
-      <c r="E228" t="s">
-        <v>2</v>
-      </c>
-      <c r="F228" t="s">
-        <v>2</v>
-      </c>
-      <c r="G228" t="s">
-        <v>2</v>
-      </c>
-      <c r="H228" t="s">
-        <v>2</v>
-      </c>
-      <c r="I228" t="s">
-        <v>4</v>
-      </c>
-      <c r="J228" t="s">
-        <v>2</v>
-      </c>
-      <c r="K228" t="s">
-        <v>2</v>
-      </c>
-      <c r="L228" t="s">
-        <v>3</v>
-      </c>
-      <c r="M228" t="s">
-        <v>4</v>
-      </c>
-      <c r="N228" t="s">
-        <v>2</v>
-      </c>
-      <c r="O228" t="s">
+      <c r="E239" t="s">
+        <v>2</v>
+      </c>
+      <c r="F239" t="s">
+        <v>2</v>
+      </c>
+      <c r="G239" t="s">
+        <v>2</v>
+      </c>
+      <c r="H239" t="s">
+        <v>2</v>
+      </c>
+      <c r="I239" t="s">
+        <v>4</v>
+      </c>
+      <c r="J239" t="s">
+        <v>2</v>
+      </c>
+      <c r="K239" t="s">
+        <v>2</v>
+      </c>
+      <c r="L239" t="s">
+        <v>3</v>
+      </c>
+      <c r="M239" t="s">
+        <v>4</v>
+      </c>
+      <c r="N239" t="s">
+        <v>2</v>
+      </c>
+      <c r="O239" t="s">
         <v>16</v>
       </c>
-      <c r="P228" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q228" t="s">
+      <c r="P239" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q239" t="s">
         <v>6</v>
       </c>
-      <c r="R228" t="s">
+      <c r="R239" t="s">
         <v>7</v>
       </c>
-      <c r="S228" t="s">
-        <v>2</v>
-      </c>
-      <c r="T228" t="s">
-        <v>8</v>
-      </c>
-      <c r="U228" t="s">
+      <c r="S239" t="s">
+        <v>2</v>
+      </c>
+      <c r="T239" t="s">
+        <v>8</v>
+      </c>
+      <c r="U239" t="s">
         <v>17</v>
       </c>
-      <c r="V228" t="s">
+      <c r="V239" t="s">
         <v>18</v>
       </c>
-      <c r="W228" t="s">
+      <c r="W239" t="s">
         <v>15</v>
       </c>
-      <c r="X228" t="s">
+      <c r="X239" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:24">
-      <c r="A229">
+    <row r="240" spans="1:24">
+      <c r="A240">
         <v>7</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B240" t="s">
         <v>28</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C240" t="s">
         <v>29</v>
       </c>
-      <c r="D229" t="b">
+      <c r="D240" t="b">
         <v>0</v>
       </c>
-      <c r="E229" t="s">
-        <v>2</v>
-      </c>
-      <c r="F229" t="s">
-        <v>4</v>
-      </c>
-      <c r="G229" t="s">
-        <v>4</v>
-      </c>
-      <c r="H229" t="s">
-        <v>4</v>
-      </c>
-      <c r="I229" t="s">
-        <v>8</v>
-      </c>
-      <c r="J229" t="s">
-        <v>2</v>
-      </c>
-      <c r="K229" t="s">
-        <v>3</v>
-      </c>
-      <c r="L229" t="s">
+      <c r="E240" t="s">
+        <v>2</v>
+      </c>
+      <c r="F240" t="s">
+        <v>4</v>
+      </c>
+      <c r="G240" t="s">
+        <v>4</v>
+      </c>
+      <c r="H240" t="s">
+        <v>4</v>
+      </c>
+      <c r="I240" t="s">
+        <v>8</v>
+      </c>
+      <c r="J240" t="s">
+        <v>2</v>
+      </c>
+      <c r="K240" t="s">
+        <v>3</v>
+      </c>
+      <c r="L240" t="s">
         <v>18</v>
       </c>
-      <c r="M229" t="s">
-        <v>3</v>
-      </c>
-      <c r="N229" t="s">
-        <v>4</v>
-      </c>
-      <c r="O229" t="s">
-        <v>4</v>
-      </c>
-      <c r="P229" t="s">
+      <c r="M240" t="s">
+        <v>3</v>
+      </c>
+      <c r="N240" t="s">
+        <v>4</v>
+      </c>
+      <c r="O240" t="s">
+        <v>4</v>
+      </c>
+      <c r="P240" t="s">
         <v>5</v>
       </c>
-      <c r="Q229" t="s">
-        <v>2</v>
-      </c>
-      <c r="R229" t="s">
-        <v>3</v>
-      </c>
-      <c r="S229" t="s">
-        <v>3</v>
-      </c>
-      <c r="T229" t="s">
+      <c r="Q240" t="s">
+        <v>2</v>
+      </c>
+      <c r="R240" t="s">
+        <v>3</v>
+      </c>
+      <c r="S240" t="s">
+        <v>3</v>
+      </c>
+      <c r="T240" t="s">
         <v>9</v>
       </c>
-      <c r="U229" t="s">
+      <c r="U240" t="s">
         <v>17</v>
       </c>
-      <c r="V229" t="s">
-        <v>2</v>
-      </c>
-      <c r="W229" t="s">
+      <c r="V240" t="s">
+        <v>2</v>
+      </c>
+      <c r="W240" t="s">
         <v>15</v>
       </c>
-      <c r="X229" t="s">
+      <c r="X240" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:24">
-      <c r="A230">
+    <row r="241" spans="1:24">
+      <c r="A241">
         <v>9</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B241" t="s">
         <v>30</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C241" t="s">
         <v>31</v>
       </c>
-      <c r="D230" t="b">
+      <c r="D241" t="b">
         <v>0</v>
       </c>
-      <c r="E230" t="s">
-        <v>3</v>
-      </c>
-      <c r="F230" t="s">
-        <v>4</v>
-      </c>
-      <c r="G230" t="s">
-        <v>4</v>
-      </c>
-      <c r="H230" t="s">
-        <v>3</v>
-      </c>
-      <c r="I230" t="s">
-        <v>8</v>
-      </c>
-      <c r="J230" t="s">
-        <v>2</v>
-      </c>
-      <c r="K230" t="s">
+      <c r="E241" t="s">
+        <v>3</v>
+      </c>
+      <c r="F241" t="s">
+        <v>4</v>
+      </c>
+      <c r="G241" t="s">
+        <v>4</v>
+      </c>
+      <c r="H241" t="s">
+        <v>3</v>
+      </c>
+      <c r="I241" t="s">
+        <v>8</v>
+      </c>
+      <c r="J241" t="s">
+        <v>2</v>
+      </c>
+      <c r="K241" t="s">
         <v>17</v>
       </c>
-      <c r="L230" t="s">
-        <v>2</v>
-      </c>
-      <c r="M230" t="s">
-        <v>8</v>
-      </c>
-      <c r="N230" t="s">
-        <v>4</v>
-      </c>
-      <c r="O230" t="s">
+      <c r="L241" t="s">
+        <v>2</v>
+      </c>
+      <c r="M241" t="s">
+        <v>8</v>
+      </c>
+      <c r="N241" t="s">
+        <v>4</v>
+      </c>
+      <c r="O241" t="s">
         <v>16</v>
       </c>
-      <c r="P230" t="s">
+      <c r="P241" t="s">
         <v>5</v>
       </c>
-      <c r="Q230" t="s">
-        <v>2</v>
-      </c>
-      <c r="R230" t="s">
-        <v>4</v>
-      </c>
-      <c r="S230" t="s">
-        <v>4</v>
-      </c>
-      <c r="T230" t="s">
-        <v>4</v>
-      </c>
-      <c r="U230" t="s">
-        <v>2</v>
-      </c>
-      <c r="V230" t="s">
+      <c r="Q241" t="s">
+        <v>2</v>
+      </c>
+      <c r="R241" t="s">
+        <v>4</v>
+      </c>
+      <c r="S241" t="s">
+        <v>4</v>
+      </c>
+      <c r="T241" t="s">
+        <v>4</v>
+      </c>
+      <c r="U241" t="s">
+        <v>2</v>
+      </c>
+      <c r="V241" t="s">
         <v>18</v>
       </c>
-      <c r="W230" t="s">
-        <v>2</v>
-      </c>
-      <c r="X230" t="s">
+      <c r="W241" t="s">
+        <v>2</v>
+      </c>
+      <c r="X241" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:24">
-      <c r="A231">
+    <row r="242" spans="1:24">
+      <c r="A242">
         <v>10</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B242" t="s">
         <v>32</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C242" t="s">
         <v>33</v>
       </c>
-      <c r="D231" t="b">
+      <c r="D242" t="b">
         <v>0</v>
       </c>
-      <c r="E231" t="s">
-        <v>3</v>
-      </c>
-      <c r="F231" t="s">
+      <c r="E242" t="s">
+        <v>3</v>
+      </c>
+      <c r="F242" t="s">
         <v>5</v>
       </c>
-      <c r="G231" t="s">
-        <v>3</v>
-      </c>
-      <c r="H231" t="s">
+      <c r="G242" t="s">
+        <v>3</v>
+      </c>
+      <c r="H242" t="s">
         <v>7</v>
       </c>
-      <c r="I231" t="s">
-        <v>2</v>
-      </c>
-      <c r="J231" t="s">
-        <v>2</v>
-      </c>
-      <c r="K231" t="s">
-        <v>3</v>
-      </c>
-      <c r="L231" t="s">
-        <v>2</v>
-      </c>
-      <c r="M231" t="s">
-        <v>4</v>
-      </c>
-      <c r="N231" t="s">
-        <v>2</v>
-      </c>
-      <c r="O231" t="s">
-        <v>2</v>
-      </c>
-      <c r="P231" t="s">
+      <c r="I242" t="s">
+        <v>2</v>
+      </c>
+      <c r="J242" t="s">
+        <v>2</v>
+      </c>
+      <c r="K242" t="s">
+        <v>3</v>
+      </c>
+      <c r="L242" t="s">
+        <v>2</v>
+      </c>
+      <c r="M242" t="s">
+        <v>4</v>
+      </c>
+      <c r="N242" t="s">
+        <v>2</v>
+      </c>
+      <c r="O242" t="s">
+        <v>2</v>
+      </c>
+      <c r="P242" t="s">
         <v>5</v>
       </c>
-      <c r="Q231" t="s">
-        <v>3</v>
-      </c>
-      <c r="R231" t="s">
-        <v>8</v>
-      </c>
-      <c r="S231" t="s">
-        <v>3</v>
-      </c>
-      <c r="T231" t="s">
-        <v>8</v>
-      </c>
-      <c r="U231" t="s">
+      <c r="Q242" t="s">
+        <v>3</v>
+      </c>
+      <c r="R242" t="s">
+        <v>8</v>
+      </c>
+      <c r="S242" t="s">
+        <v>3</v>
+      </c>
+      <c r="T242" t="s">
+        <v>8</v>
+      </c>
+      <c r="U242" t="s">
         <v>17</v>
       </c>
-      <c r="V231" t="s">
+      <c r="V242" t="s">
         <v>18</v>
       </c>
-      <c r="W231" t="s">
+      <c r="W242" t="s">
         <v>15</v>
       </c>
-      <c r="X231" t="s">
+      <c r="X242" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:24">
-      <c r="A232">
+    <row r="243" spans="1:24">
+      <c r="A243">
         <v>12</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B243" t="s">
         <v>34</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C243" t="s">
         <v>35</v>
       </c>
-      <c r="D232" t="b">
+      <c r="D243" t="b">
         <v>0</v>
       </c>
-      <c r="E232" t="s">
-        <v>2</v>
-      </c>
-      <c r="F232" t="s">
-        <v>2</v>
-      </c>
-      <c r="G232" t="s">
-        <v>3</v>
-      </c>
-      <c r="H232" t="s">
-        <v>3</v>
-      </c>
-      <c r="I232" t="s">
-        <v>3</v>
-      </c>
-      <c r="J232" t="s">
-        <v>2</v>
-      </c>
-      <c r="K232" t="s">
-        <v>4</v>
-      </c>
-      <c r="L232" t="s">
+      <c r="E243" t="s">
+        <v>2</v>
+      </c>
+      <c r="F243" t="s">
+        <v>2</v>
+      </c>
+      <c r="G243" t="s">
+        <v>3</v>
+      </c>
+      <c r="H243" t="s">
+        <v>3</v>
+      </c>
+      <c r="I243" t="s">
+        <v>3</v>
+      </c>
+      <c r="J243" t="s">
+        <v>2</v>
+      </c>
+      <c r="K243" t="s">
+        <v>4</v>
+      </c>
+      <c r="L243" t="s">
         <v>18</v>
       </c>
-      <c r="M232" t="s">
-        <v>8</v>
-      </c>
-      <c r="N232" t="s">
-        <v>3</v>
-      </c>
-      <c r="O232" t="s">
-        <v>2</v>
-      </c>
-      <c r="P232" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q232" t="s">
+      <c r="M243" t="s">
+        <v>8</v>
+      </c>
+      <c r="N243" t="s">
+        <v>3</v>
+      </c>
+      <c r="O243" t="s">
+        <v>2</v>
+      </c>
+      <c r="P243" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q243" t="s">
         <v>6</v>
       </c>
-      <c r="R232" t="s">
-        <v>2</v>
-      </c>
-      <c r="S232" t="s">
-        <v>3</v>
-      </c>
-      <c r="T232" t="s">
+      <c r="R243" t="s">
+        <v>2</v>
+      </c>
+      <c r="S243" t="s">
+        <v>3</v>
+      </c>
+      <c r="T243" t="s">
         <v>9</v>
       </c>
-      <c r="U232" t="s">
+      <c r="U243" t="s">
         <v>17</v>
       </c>
-      <c r="V232" t="s">
+      <c r="V243" t="s">
         <v>18</v>
       </c>
-      <c r="W232" t="s">
-        <v>2</v>
-      </c>
-      <c r="X232" t="s">
+      <c r="W243" t="s">
+        <v>2</v>
+      </c>
+      <c r="X243" t="s">
         <v>4</v>
       </c>
     </row>
@@ -837,453 +837,453 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A222:X227"/>
+  <dimension ref="A233:X238"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="222" spans="1:24">
-      <c r="A222">
-        <v>2</v>
-      </c>
-      <c r="B222" t="s">
+    <row r="233" spans="1:24">
+      <c r="A233">
+        <v>2</v>
+      </c>
+      <c r="B233" t="s">
         <v>0</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C233" t="s">
         <v>1</v>
       </c>
-      <c r="D222" t="b">
+      <c r="D233" t="b">
         <v>1</v>
       </c>
-      <c r="E222" t="s">
-        <v>2</v>
-      </c>
-      <c r="F222" t="s">
-        <v>2</v>
-      </c>
-      <c r="G222" t="s">
-        <v>2</v>
-      </c>
-      <c r="H222" t="s">
-        <v>2</v>
-      </c>
-      <c r="I222" t="s">
-        <v>2</v>
-      </c>
-      <c r="J222" t="s">
-        <v>3</v>
-      </c>
-      <c r="K222" t="s">
-        <v>4</v>
-      </c>
-      <c r="L222" t="s">
-        <v>2</v>
-      </c>
-      <c r="M222" t="s">
-        <v>2</v>
-      </c>
-      <c r="N222" t="s">
-        <v>2</v>
-      </c>
-      <c r="O222" t="s">
-        <v>2</v>
-      </c>
-      <c r="P222" t="s">
+      <c r="E233" t="s">
+        <v>2</v>
+      </c>
+      <c r="F233" t="s">
+        <v>2</v>
+      </c>
+      <c r="G233" t="s">
+        <v>2</v>
+      </c>
+      <c r="H233" t="s">
+        <v>2</v>
+      </c>
+      <c r="I233" t="s">
+        <v>2</v>
+      </c>
+      <c r="J233" t="s">
+        <v>3</v>
+      </c>
+      <c r="K233" t="s">
+        <v>4</v>
+      </c>
+      <c r="L233" t="s">
+        <v>2</v>
+      </c>
+      <c r="M233" t="s">
+        <v>2</v>
+      </c>
+      <c r="N233" t="s">
+        <v>2</v>
+      </c>
+      <c r="O233" t="s">
+        <v>2</v>
+      </c>
+      <c r="P233" t="s">
         <v>5</v>
       </c>
-      <c r="Q222" t="s">
+      <c r="Q233" t="s">
         <v>6</v>
       </c>
-      <c r="R222" t="s">
+      <c r="R233" t="s">
         <v>7</v>
       </c>
-      <c r="S222" t="s">
-        <v>8</v>
-      </c>
-      <c r="T222" t="s">
+      <c r="S233" t="s">
+        <v>8</v>
+      </c>
+      <c r="T233" t="s">
         <v>9</v>
       </c>
-      <c r="U222" t="s">
-        <v>3</v>
-      </c>
-      <c r="V222" t="s">
-        <v>8</v>
-      </c>
-      <c r="W222" t="s">
-        <v>2</v>
-      </c>
-      <c r="X222" t="s">
+      <c r="U233" t="s">
+        <v>3</v>
+      </c>
+      <c r="V233" t="s">
+        <v>8</v>
+      </c>
+      <c r="W233" t="s">
+        <v>2</v>
+      </c>
+      <c r="X233" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:24">
-      <c r="A223">
-        <v>3</v>
-      </c>
-      <c r="B223" t="s">
+    <row r="234" spans="1:24">
+      <c r="A234">
+        <v>3</v>
+      </c>
+      <c r="B234" t="s">
         <v>11</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C234" t="s">
         <v>12</v>
       </c>
-      <c r="D223" t="b">
+      <c r="D234" t="b">
         <v>1</v>
       </c>
-      <c r="E223" t="s">
-        <v>4</v>
-      </c>
-      <c r="F223" t="s">
-        <v>3</v>
-      </c>
-      <c r="G223" t="s">
-        <v>2</v>
-      </c>
-      <c r="H223" t="s">
-        <v>2</v>
-      </c>
-      <c r="I223" t="s">
-        <v>2</v>
-      </c>
-      <c r="J223" t="s">
-        <v>4</v>
-      </c>
-      <c r="K223" t="s">
-        <v>2</v>
-      </c>
-      <c r="L223" t="s">
-        <v>3</v>
-      </c>
-      <c r="M223" t="s">
-        <v>2</v>
-      </c>
-      <c r="N223" t="s">
+      <c r="E234" t="s">
+        <v>4</v>
+      </c>
+      <c r="F234" t="s">
+        <v>3</v>
+      </c>
+      <c r="G234" t="s">
+        <v>2</v>
+      </c>
+      <c r="H234" t="s">
+        <v>2</v>
+      </c>
+      <c r="I234" t="s">
+        <v>2</v>
+      </c>
+      <c r="J234" t="s">
+        <v>4</v>
+      </c>
+      <c r="K234" t="s">
+        <v>2</v>
+      </c>
+      <c r="L234" t="s">
+        <v>3</v>
+      </c>
+      <c r="M234" t="s">
+        <v>2</v>
+      </c>
+      <c r="N234" t="s">
         <v>10</v>
       </c>
-      <c r="O223" t="s">
-        <v>4</v>
-      </c>
-      <c r="P223" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q223" t="s">
-        <v>8</v>
-      </c>
-      <c r="R223" t="s">
-        <v>2</v>
-      </c>
-      <c r="S223" t="s">
-        <v>2</v>
-      </c>
-      <c r="T223" t="s">
-        <v>2</v>
-      </c>
-      <c r="U223" t="s">
-        <v>3</v>
-      </c>
-      <c r="V223" t="s">
-        <v>2</v>
-      </c>
-      <c r="W223" t="s">
-        <v>8</v>
-      </c>
-      <c r="X223" t="s">
+      <c r="O234" t="s">
+        <v>4</v>
+      </c>
+      <c r="P234" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>8</v>
+      </c>
+      <c r="R234" t="s">
+        <v>2</v>
+      </c>
+      <c r="S234" t="s">
+        <v>2</v>
+      </c>
+      <c r="T234" t="s">
+        <v>2</v>
+      </c>
+      <c r="U234" t="s">
+        <v>3</v>
+      </c>
+      <c r="V234" t="s">
+        <v>2</v>
+      </c>
+      <c r="W234" t="s">
+        <v>8</v>
+      </c>
+      <c r="X234" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:24">
-      <c r="A224">
+    <row r="235" spans="1:24">
+      <c r="A235">
         <v>5</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B235" t="s">
         <v>13</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C235" t="s">
         <v>14</v>
       </c>
-      <c r="D224" t="b">
+      <c r="D235" t="b">
         <v>1</v>
       </c>
-      <c r="E224" t="s">
-        <v>8</v>
-      </c>
-      <c r="F224" t="s">
-        <v>3</v>
-      </c>
-      <c r="G224" t="s">
-        <v>2</v>
-      </c>
-      <c r="H224" t="s">
+      <c r="E235" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235" t="s">
+        <v>3</v>
+      </c>
+      <c r="G235" t="s">
+        <v>2</v>
+      </c>
+      <c r="H235" t="s">
         <v>7</v>
       </c>
-      <c r="I224" t="s">
-        <v>4</v>
-      </c>
-      <c r="J224" t="s">
-        <v>2</v>
-      </c>
-      <c r="K224" t="s">
-        <v>4</v>
-      </c>
-      <c r="L224" t="s">
-        <v>2</v>
-      </c>
-      <c r="M224" t="s">
+      <c r="I235" t="s">
+        <v>4</v>
+      </c>
+      <c r="J235" t="s">
+        <v>2</v>
+      </c>
+      <c r="K235" t="s">
+        <v>4</v>
+      </c>
+      <c r="L235" t="s">
+        <v>2</v>
+      </c>
+      <c r="M235" t="s">
         <v>15</v>
       </c>
-      <c r="N224" t="s">
-        <v>2</v>
-      </c>
-      <c r="O224" t="s">
+      <c r="N235" t="s">
+        <v>2</v>
+      </c>
+      <c r="O235" t="s">
         <v>16</v>
       </c>
-      <c r="P224" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q224" t="s">
-        <v>2</v>
-      </c>
-      <c r="R224" t="s">
-        <v>2</v>
-      </c>
-      <c r="S224" t="s">
-        <v>8</v>
-      </c>
-      <c r="T224" t="s">
-        <v>4</v>
-      </c>
-      <c r="U224" t="s">
+      <c r="P235" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>2</v>
+      </c>
+      <c r="R235" t="s">
+        <v>2</v>
+      </c>
+      <c r="S235" t="s">
+        <v>8</v>
+      </c>
+      <c r="T235" t="s">
+        <v>4</v>
+      </c>
+      <c r="U235" t="s">
         <v>17</v>
       </c>
-      <c r="V224" t="s">
+      <c r="V235" t="s">
         <v>18</v>
       </c>
-      <c r="W224" t="s">
-        <v>3</v>
-      </c>
-      <c r="X224" t="s">
+      <c r="W235" t="s">
+        <v>3</v>
+      </c>
+      <c r="X235" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:24">
-      <c r="A225">
+    <row r="236" spans="1:24">
+      <c r="A236">
         <v>6</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B236" t="s">
         <v>19</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C236" t="s">
         <v>20</v>
       </c>
-      <c r="D225" t="b">
+      <c r="D236" t="b">
         <v>1</v>
       </c>
-      <c r="E225" t="s">
-        <v>8</v>
-      </c>
-      <c r="F225" t="s">
-        <v>2</v>
-      </c>
-      <c r="G225" t="s">
-        <v>4</v>
-      </c>
-      <c r="H225" t="s">
-        <v>2</v>
-      </c>
-      <c r="I225" t="s">
-        <v>2</v>
-      </c>
-      <c r="J225" t="s">
-        <v>2</v>
-      </c>
-      <c r="K225" t="s">
-        <v>2</v>
-      </c>
-      <c r="L225" t="s">
-        <v>3</v>
-      </c>
-      <c r="M225" t="s">
-        <v>2</v>
-      </c>
-      <c r="N225" t="s">
-        <v>2</v>
-      </c>
-      <c r="O225" t="s">
+      <c r="E236" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236" t="s">
+        <v>2</v>
+      </c>
+      <c r="G236" t="s">
+        <v>4</v>
+      </c>
+      <c r="H236" t="s">
+        <v>2</v>
+      </c>
+      <c r="I236" t="s">
+        <v>2</v>
+      </c>
+      <c r="J236" t="s">
+        <v>2</v>
+      </c>
+      <c r="K236" t="s">
+        <v>2</v>
+      </c>
+      <c r="L236" t="s">
+        <v>3</v>
+      </c>
+      <c r="M236" t="s">
+        <v>2</v>
+      </c>
+      <c r="N236" t="s">
+        <v>2</v>
+      </c>
+      <c r="O236" t="s">
         <v>16</v>
       </c>
-      <c r="P225" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q225" t="s">
-        <v>8</v>
-      </c>
-      <c r="R225" t="s">
-        <v>8</v>
-      </c>
-      <c r="S225" t="s">
-        <v>8</v>
-      </c>
-      <c r="T225" t="s">
-        <v>2</v>
-      </c>
-      <c r="U225" t="s">
+      <c r="P236" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>8</v>
+      </c>
+      <c r="R236" t="s">
+        <v>8</v>
+      </c>
+      <c r="S236" t="s">
+        <v>8</v>
+      </c>
+      <c r="T236" t="s">
+        <v>2</v>
+      </c>
+      <c r="U236" t="s">
         <v>17</v>
       </c>
-      <c r="V225" t="s">
-        <v>4</v>
-      </c>
-      <c r="W225" t="s">
+      <c r="V236" t="s">
+        <v>4</v>
+      </c>
+      <c r="W236" t="s">
         <v>15</v>
       </c>
-      <c r="X225" t="s">
+      <c r="X236" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:24">
-      <c r="A226">
-        <v>8</v>
-      </c>
-      <c r="B226" t="s">
+    <row r="237" spans="1:24">
+      <c r="A237">
+        <v>8</v>
+      </c>
+      <c r="B237" t="s">
         <v>21</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C237" t="s">
         <v>22</v>
       </c>
-      <c r="D226" t="b">
+      <c r="D237" t="b">
         <v>1</v>
       </c>
-      <c r="E226" t="s">
-        <v>2</v>
-      </c>
-      <c r="F226" t="s">
-        <v>4</v>
-      </c>
-      <c r="G226" t="s">
+      <c r="E237" t="s">
+        <v>2</v>
+      </c>
+      <c r="F237" t="s">
+        <v>4</v>
+      </c>
+      <c r="G237" t="s">
         <v>6</v>
       </c>
-      <c r="H226" t="s">
-        <v>2</v>
-      </c>
-      <c r="I226" t="s">
-        <v>2</v>
-      </c>
-      <c r="J226" t="s">
-        <v>3</v>
-      </c>
-      <c r="K226" t="s">
-        <v>2</v>
-      </c>
-      <c r="L226" t="s">
-        <v>4</v>
-      </c>
-      <c r="M226" t="s">
+      <c r="H237" t="s">
+        <v>2</v>
+      </c>
+      <c r="I237" t="s">
+        <v>2</v>
+      </c>
+      <c r="J237" t="s">
+        <v>3</v>
+      </c>
+      <c r="K237" t="s">
+        <v>2</v>
+      </c>
+      <c r="L237" t="s">
+        <v>4</v>
+      </c>
+      <c r="M237" t="s">
         <v>15</v>
       </c>
-      <c r="N226" t="s">
-        <v>2</v>
-      </c>
-      <c r="O226" t="s">
-        <v>3</v>
-      </c>
-      <c r="P226" t="s">
+      <c r="N237" t="s">
+        <v>2</v>
+      </c>
+      <c r="O237" t="s">
+        <v>3</v>
+      </c>
+      <c r="P237" t="s">
         <v>5</v>
       </c>
-      <c r="Q226" t="s">
+      <c r="Q237" t="s">
         <v>6</v>
       </c>
-      <c r="R226" t="s">
-        <v>4</v>
-      </c>
-      <c r="S226" t="s">
+      <c r="R237" t="s">
+        <v>4</v>
+      </c>
+      <c r="S237" t="s">
         <v>23</v>
       </c>
-      <c r="T226" t="s">
-        <v>2</v>
-      </c>
-      <c r="U226" t="s">
+      <c r="T237" t="s">
+        <v>2</v>
+      </c>
+      <c r="U237" t="s">
         <v>17</v>
       </c>
-      <c r="V226" t="s">
+      <c r="V237" t="s">
         <v>18</v>
       </c>
-      <c r="W226" t="s">
-        <v>2</v>
-      </c>
-      <c r="X226" t="s">
+      <c r="W237" t="s">
+        <v>2</v>
+      </c>
+      <c r="X237" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:24">
-      <c r="A227">
+    <row r="238" spans="1:24">
+      <c r="A238">
         <v>11</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B238" t="s">
         <v>24</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C238" t="s">
         <v>25</v>
       </c>
-      <c r="D227" t="b">
+      <c r="D238" t="b">
         <v>1</v>
       </c>
-      <c r="E227" t="s">
-        <v>2</v>
-      </c>
-      <c r="F227" t="s">
-        <v>4</v>
-      </c>
-      <c r="G227" t="s">
-        <v>3</v>
-      </c>
-      <c r="H227" t="s">
-        <v>2</v>
-      </c>
-      <c r="I227" t="s">
-        <v>2</v>
-      </c>
-      <c r="J227" t="s">
-        <v>3</v>
-      </c>
-      <c r="K227" t="s">
-        <v>3</v>
-      </c>
-      <c r="L227" t="s">
-        <v>3</v>
-      </c>
-      <c r="M227" t="s">
-        <v>8</v>
-      </c>
-      <c r="N227" t="s">
+      <c r="E238" t="s">
+        <v>2</v>
+      </c>
+      <c r="F238" t="s">
+        <v>4</v>
+      </c>
+      <c r="G238" t="s">
+        <v>3</v>
+      </c>
+      <c r="H238" t="s">
+        <v>2</v>
+      </c>
+      <c r="I238" t="s">
+        <v>2</v>
+      </c>
+      <c r="J238" t="s">
+        <v>3</v>
+      </c>
+      <c r="K238" t="s">
+        <v>3</v>
+      </c>
+      <c r="L238" t="s">
+        <v>3</v>
+      </c>
+      <c r="M238" t="s">
+        <v>8</v>
+      </c>
+      <c r="N238" t="s">
         <v>10</v>
       </c>
-      <c r="O227" t="s">
-        <v>2</v>
-      </c>
-      <c r="P227" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q227" t="s">
+      <c r="O238" t="s">
+        <v>2</v>
+      </c>
+      <c r="P238" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q238" t="s">
         <v>6</v>
       </c>
-      <c r="R227" t="s">
-        <v>2</v>
-      </c>
-      <c r="S227" t="s">
+      <c r="R238" t="s">
+        <v>2</v>
+      </c>
+      <c r="S238" t="s">
         <v>23</v>
       </c>
-      <c r="T227" t="s">
-        <v>2</v>
-      </c>
-      <c r="U227" t="s">
-        <v>2</v>
-      </c>
-      <c r="V227" t="s">
+      <c r="T238" t="s">
+        <v>2</v>
+      </c>
+      <c r="U238" t="s">
+        <v>2</v>
+      </c>
+      <c r="V238" t="s">
         <v>18</v>
       </c>
-      <c r="W227" t="s">
-        <v>3</v>
-      </c>
-      <c r="X227" t="s">
+      <c r="W238" t="s">
+        <v>3</v>
+      </c>
+      <c r="X238" t="s">
         <v>10</v>
       </c>
     </row>

--- a/resultatsEvscape.xlsx
+++ b/resultatsEvscape.xlsx
@@ -17,67 +17,94 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="36">
   <si>
+    <t>Lita</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Reponse1Spec1</t>
+  </si>
+  <si>
+    <t>abstention</t>
+  </si>
+  <si>
+    <t>reponseB</t>
+  </si>
+  <si>
+    <t>responseA</t>
+  </si>
+  <si>
+    <t>reponseC</t>
+  </si>
+  <si>
+    <t>Reponse7Spec1</t>
+  </si>
+  <si>
+    <t>toto</t>
+  </si>
+  <si>
+    <t>litoe</t>
+  </si>
+  <si>
+    <t>Reponse5Spec1</t>
+  </si>
+  <si>
+    <t>Reponse8Spec1</t>
+  </si>
+  <si>
+    <t>Reponse2Spec1</t>
+  </si>
+  <si>
+    <t>Reponse3Spec1</t>
+  </si>
+  <si>
+    <t>Reponse9Spec1</t>
+  </si>
+  <si>
+    <t>Reponse10Spec1</t>
+  </si>
+  <si>
+    <t>Gisele</t>
+  </si>
+  <si>
+    <t>Giligi</t>
+  </si>
+  <si>
+    <t>Reponse6Spec1</t>
+  </si>
+  <si>
+    <t>Patricke</t>
+  </si>
+  <si>
+    <t>Kluivert</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>Reponse4Spec1</t>
+  </si>
+  <si>
+    <t>Patrke</t>
+  </si>
+  <si>
+    <t>Klert</t>
+  </si>
+  <si>
     <t>Boudlal</t>
   </si>
   <si>
     <t>Khalid</t>
   </si>
   <si>
-    <t>Reponse1Spec1</t>
-  </si>
-  <si>
-    <t>abstention</t>
-  </si>
-  <si>
-    <t>reponseB</t>
-  </si>
-  <si>
-    <t>reponseC</t>
-  </si>
-  <si>
-    <t>Reponse5Spec1</t>
-  </si>
-  <si>
-    <t>Reponse6Spec1</t>
-  </si>
-  <si>
-    <t>Reponse7Spec1</t>
-  </si>
-  <si>
-    <t>responseA</t>
-  </si>
-  <si>
-    <t>Reponse4Spec1</t>
-  </si>
-  <si>
-    <t>Reponse8Spec1</t>
-  </si>
-  <si>
-    <t>Reponse9Spec1</t>
-  </si>
-  <si>
-    <t>Lita</t>
-  </si>
-  <si>
-    <t>Zoe</t>
-  </si>
-  <si>
-    <t>Reponse2Spec1</t>
-  </si>
-  <si>
-    <t>Reponse10Spec1</t>
-  </si>
-  <si>
-    <t>toto</t>
-  </si>
-  <si>
-    <t>litoe</t>
-  </si>
-  <si>
-    <t>Patricke</t>
-  </si>
-  <si>
-    <t>Kluivert</t>
+    <t>Tozer</t>
+  </si>
+  <si>
+    <t>Elie</t>
   </si>
   <si>
     <t>Bernard</t>
@@ -86,43 +113,16 @@
     <t>Albert</t>
   </si>
   <si>
+    <t>Gele</t>
+  </si>
+  <si>
+    <t>Gigi</t>
+  </si>
+  <si>
     <t>Berrd</t>
   </si>
   <si>
     <t>Aert</t>
-  </si>
-  <si>
-    <t>Reponse3Spec1</t>
-  </si>
-  <si>
-    <t>Tozer</t>
-  </si>
-  <si>
-    <t>Elie</t>
-  </si>
-  <si>
-    <t>Gisele</t>
-  </si>
-  <si>
-    <t>Giligi</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>lie</t>
-  </si>
-  <si>
-    <t>Gele</t>
-  </si>
-  <si>
-    <t>Gigi</t>
-  </si>
-  <si>
-    <t>Patrke</t>
-  </si>
-  <si>
-    <t>Klert</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <sheetData>
     <row r="8" spans="1:24">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -477,66 +477,66 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O8" t="s">
         <v>2</v>
       </c>
       <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X8" t="s">
         <v>15</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" t="s">
-        <v>8</v>
-      </c>
-      <c r="V8" t="s">
-        <v>11</v>
-      </c>
-      <c r="W8" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -548,69 +548,69 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="R9" t="s">
         <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X9" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -622,43 +622,43 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" t="s">
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="R10" t="s">
         <v>3</v>
@@ -667,19 +667,19 @@
         <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="X10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -696,69 +696,69 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O11" t="s">
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="R11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="U11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -773,13 +773,13 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O12" t="s">
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T12" t="s">
         <v>5</v>
       </c>
       <c r="U12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V12" t="s">
         <v>11</v>
       </c>
       <c r="W12" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="X12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +845,7 @@
   <sheetData>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -863,99 +863,99 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" t="s">
-        <v>3</v>
-      </c>
       <c r="V2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
       <c r="J3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>4</v>
@@ -964,63 +964,63 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="R3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V3" t="s">
         <v>11</v>
       </c>
       <c r="W3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="X3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
@@ -1029,40 +1029,40 @@
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="U4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="X4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1088,19 +1088,19 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M5" t="s">
         <v>3</v>
@@ -1109,39 +1109,39 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" t="s">
         <v>15</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U5" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1153,84 +1153,84 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N6" t="s">
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="s">
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="S6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="W6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
@@ -1239,49 +1239,49 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P7" t="s">
         <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="R7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V7" t="s">
         <v>11</v>
       </c>
       <c r="W7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="X7" t="s">
         <v>4</v>

--- a/resultatsEvscape.xlsx
+++ b/resultatsEvscape.xlsx
@@ -454,601 +454,601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A27:X34"/>
+  <dimension ref="A49:X56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="27" spans="1:24">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="49" spans="1:24">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
         <v>18</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C49" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="b">
+      <c r="D49" t="b">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" t="s">
-        <v>2</v>
-      </c>
-      <c r="N27" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" t="s">
-        <v>2</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" t="s">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>2</v>
+      </c>
+      <c r="P49" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q49" t="s">
         <v>7</v>
       </c>
-      <c r="R27" t="s">
-        <v>2</v>
-      </c>
-      <c r="S27" t="s">
-        <v>11</v>
-      </c>
-      <c r="T27" t="s">
-        <v>11</v>
-      </c>
-      <c r="U27" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="R49" t="s">
+        <v>2</v>
+      </c>
+      <c r="S49" t="s">
+        <v>11</v>
+      </c>
+      <c r="T49" t="s">
+        <v>11</v>
+      </c>
+      <c r="U49" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" t="s">
         <v>13</v>
       </c>
-      <c r="W27" t="s">
+      <c r="W49" t="s">
         <v>8</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X49" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="50" spans="1:24">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C50" t="s">
         <v>22</v>
       </c>
-      <c r="D28" t="b">
+      <c r="D50" t="b">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
         <v>7</v>
       </c>
-      <c r="H28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="H50" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" t="s">
         <v>5</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L50" t="s">
         <v>13</v>
       </c>
-      <c r="M28" t="s">
-        <v>2</v>
-      </c>
-      <c r="N28" t="s">
-        <v>3</v>
-      </c>
-      <c r="O28" t="s">
-        <v>3</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="M50" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>3</v>
+      </c>
+      <c r="P50" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q50" t="s">
         <v>7</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R50" t="s">
         <v>23</v>
       </c>
-      <c r="S28" t="s">
-        <v>16</v>
-      </c>
-      <c r="T28" t="s">
+      <c r="S50" t="s">
+        <v>16</v>
+      </c>
+      <c r="T50" t="s">
         <v>12</v>
       </c>
-      <c r="U28" t="s">
-        <v>16</v>
-      </c>
-      <c r="V28" t="s">
-        <v>3</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="U50" t="s">
+        <v>16</v>
+      </c>
+      <c r="V50" t="s">
+        <v>3</v>
+      </c>
+      <c r="W50" t="s">
         <v>8</v>
       </c>
-      <c r="X28" t="s">
+      <c r="X50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
-      <c r="A29">
+    <row r="51" spans="1:24">
+      <c r="A51">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B51" t="s">
         <v>24</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C51" t="s">
         <v>25</v>
       </c>
-      <c r="D29" t="b">
+      <c r="D51" t="b">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" t="s">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>11</v>
+      </c>
+      <c r="P51" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="s">
         <v>7</v>
       </c>
-      <c r="R29" t="s">
-        <v>11</v>
-      </c>
-      <c r="S29" t="s">
-        <v>2</v>
-      </c>
-      <c r="T29" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" t="s">
-        <v>16</v>
-      </c>
-      <c r="V29" t="s">
-        <v>2</v>
-      </c>
-      <c r="W29" t="s">
-        <v>11</v>
-      </c>
-      <c r="X29" t="s">
+      <c r="R51" t="s">
+        <v>11</v>
+      </c>
+      <c r="S51" t="s">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s">
+        <v>2</v>
+      </c>
+      <c r="U51" t="s">
+        <v>16</v>
+      </c>
+      <c r="V51" t="s">
+        <v>2</v>
+      </c>
+      <c r="W51" t="s">
+        <v>11</v>
+      </c>
+      <c r="X51" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
-      <c r="A30">
+    <row r="52" spans="1:24">
+      <c r="A52">
         <v>6</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B52" t="s">
         <v>26</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C52" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="b">
+      <c r="D52" t="b">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" t="s">
-        <v>3</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" t="s">
         <v>13</v>
       </c>
-      <c r="M30" t="s">
-        <v>2</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="M52" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
         <v>17</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O52" t="s">
         <v>6</v>
       </c>
-      <c r="P30" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" t="s">
-        <v>11</v>
-      </c>
-      <c r="S30" t="s">
-        <v>3</v>
-      </c>
-      <c r="T30" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" t="s">
+      <c r="P52" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>2</v>
+      </c>
+      <c r="R52" t="s">
+        <v>11</v>
+      </c>
+      <c r="S52" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s">
+        <v>2</v>
+      </c>
+      <c r="U52" t="s">
         <v>5</v>
       </c>
-      <c r="V30" t="s">
-        <v>2</v>
-      </c>
-      <c r="W30" t="s">
+      <c r="V52" t="s">
+        <v>2</v>
+      </c>
+      <c r="W52" t="s">
         <v>8</v>
       </c>
-      <c r="X30" t="s">
+      <c r="X52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
-      <c r="A31">
+    <row r="53" spans="1:24">
+      <c r="A53">
         <v>7</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B53" t="s">
         <v>28</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C53" t="s">
         <v>29</v>
       </c>
-      <c r="D31" t="b">
+      <c r="D53" t="b">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
         <v>23</v>
       </c>
-      <c r="I31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" t="s">
-        <v>2</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="I53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
         <v>5</v>
       </c>
-      <c r="L31" t="s">
-        <v>2</v>
-      </c>
-      <c r="M31" t="s">
-        <v>2</v>
-      </c>
-      <c r="N31" t="s">
-        <v>2</v>
-      </c>
-      <c r="O31" t="s">
-        <v>2</v>
-      </c>
-      <c r="P31" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="L53" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" t="s">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>2</v>
+      </c>
+      <c r="P53" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="s">
         <v>7</v>
       </c>
-      <c r="R31" t="s">
-        <v>2</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="R53" t="s">
+        <v>2</v>
+      </c>
+      <c r="S53" t="s">
         <v>4</v>
       </c>
-      <c r="T31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" t="s">
+      <c r="T53" t="s">
+        <v>2</v>
+      </c>
+      <c r="U53" t="s">
         <v>5</v>
       </c>
-      <c r="V31" t="s">
+      <c r="V53" t="s">
         <v>13</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W53" t="s">
         <v>8</v>
       </c>
-      <c r="X31" t="s">
+      <c r="X53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
-      <c r="A32">
+    <row r="54" spans="1:24">
+      <c r="A54">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B54" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C54" t="s">
         <v>31</v>
       </c>
-      <c r="D32" t="b">
+      <c r="D54" t="b">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
         <v>7</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H54" t="s">
         <v>23</v>
       </c>
-      <c r="I32" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
         <v>6</v>
       </c>
-      <c r="P32" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" t="s">
-        <v>11</v>
-      </c>
-      <c r="S32" t="s">
+      <c r="P54" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" t="s">
+        <v>11</v>
+      </c>
+      <c r="S54" t="s">
         <v>4</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T54" t="s">
         <v>12</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U54" t="s">
         <v>5</v>
       </c>
-      <c r="V32" t="s">
+      <c r="V54" t="s">
         <v>13</v>
       </c>
-      <c r="W32" t="s">
+      <c r="W54" t="s">
         <v>8</v>
       </c>
-      <c r="X32" t="s">
+      <c r="X54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="55" spans="1:24">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C55" t="s">
         <v>33</v>
       </c>
-      <c r="D33" t="b">
+      <c r="D55" t="b">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E55" t="s">
         <v>6</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F55" t="s">
         <v>20</v>
       </c>
-      <c r="G33" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
         <v>4</v>
       </c>
-      <c r="J33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K33" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" t="s">
-        <v>16</v>
-      </c>
-      <c r="N33" t="s">
-        <v>16</v>
-      </c>
-      <c r="O33" t="s">
-        <v>11</v>
-      </c>
-      <c r="P33" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>11</v>
-      </c>
-      <c r="R33" t="s">
-        <v>16</v>
-      </c>
-      <c r="S33" t="s">
-        <v>11</v>
-      </c>
-      <c r="T33" t="s">
-        <v>16</v>
-      </c>
-      <c r="U33" t="s">
-        <v>11</v>
-      </c>
-      <c r="V33" t="s">
-        <v>2</v>
-      </c>
-      <c r="W33" t="s">
+      <c r="J55" t="s">
+        <v>2</v>
+      </c>
+      <c r="K55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" t="s">
+        <v>16</v>
+      </c>
+      <c r="N55" t="s">
+        <v>16</v>
+      </c>
+      <c r="O55" t="s">
+        <v>11</v>
+      </c>
+      <c r="P55" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>11</v>
+      </c>
+      <c r="R55" t="s">
+        <v>16</v>
+      </c>
+      <c r="S55" t="s">
+        <v>11</v>
+      </c>
+      <c r="T55" t="s">
+        <v>16</v>
+      </c>
+      <c r="U55" t="s">
+        <v>11</v>
+      </c>
+      <c r="V55" t="s">
+        <v>2</v>
+      </c>
+      <c r="W55" t="s">
         <v>8</v>
       </c>
-      <c r="X33" t="s">
+      <c r="X55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
-      <c r="A34">
+    <row r="56" spans="1:24">
+      <c r="A56">
         <v>12</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B56" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C56" t="s">
         <v>35</v>
       </c>
-      <c r="D34" t="b">
+      <c r="D56" t="b">
         <v>0</v>
       </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" t="s">
-        <v>2</v>
-      </c>
-      <c r="J34" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" t="s">
-        <v>2</v>
-      </c>
-      <c r="L34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" t="s">
+        <v>2</v>
+      </c>
+      <c r="L56" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56" t="s">
         <v>8</v>
       </c>
-      <c r="N34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="N56" t="s">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
         <v>6</v>
       </c>
-      <c r="P34" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="P56" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q56" t="s">
         <v>7</v>
       </c>
-      <c r="R34" t="s">
-        <v>3</v>
-      </c>
-      <c r="S34" t="s">
-        <v>11</v>
-      </c>
-      <c r="T34" t="s">
-        <v>11</v>
-      </c>
-      <c r="U34" t="s">
-        <v>2</v>
-      </c>
-      <c r="V34" t="s">
+      <c r="R56" t="s">
+        <v>3</v>
+      </c>
+      <c r="S56" t="s">
+        <v>11</v>
+      </c>
+      <c r="T56" t="s">
+        <v>11</v>
+      </c>
+      <c r="U56" t="s">
+        <v>2</v>
+      </c>
+      <c r="V56" t="s">
         <v>13</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W56" t="s">
         <v>8</v>
       </c>
-      <c r="X34" t="s">
+      <c r="X56" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1059,231 +1059,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A24:X26"/>
+  <dimension ref="A46:X48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="24" spans="1:24">
-      <c r="A24">
+    <row r="46" spans="1:24">
+      <c r="A46">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B46" t="s">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C46" t="s">
         <v>1</v>
       </c>
-      <c r="D24" t="b">
+      <c r="D46" t="b">
         <v>1</v>
       </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
         <v>4</v>
       </c>
-      <c r="J24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="J46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" t="s">
         <v>5</v>
       </c>
-      <c r="L24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>2</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="L46" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" t="s">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
         <v>6</v>
       </c>
-      <c r="P24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="P46" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="s">
         <v>7</v>
       </c>
-      <c r="R24" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" t="s">
-        <v>2</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="R46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s">
+        <v>2</v>
+      </c>
+      <c r="U46" t="s">
         <v>5</v>
       </c>
-      <c r="V24" t="s">
-        <v>3</v>
-      </c>
-      <c r="W24" t="s">
+      <c r="V46" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" t="s">
         <v>8</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
-      <c r="A25">
+    <row r="47" spans="1:24">
+      <c r="A47">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C47" t="s">
         <v>10</v>
       </c>
-      <c r="D25" t="b">
+      <c r="D47" t="b">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
         <v>7</v>
       </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" t="s">
         <v>5</v>
       </c>
-      <c r="L25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" t="s">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s">
-        <v>2</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="L47" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
         <v>6</v>
       </c>
-      <c r="P25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>2</v>
-      </c>
-      <c r="R25" t="s">
-        <v>11</v>
-      </c>
-      <c r="S25" t="s">
-        <v>3</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="P47" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>2</v>
+      </c>
+      <c r="R47" t="s">
+        <v>11</v>
+      </c>
+      <c r="S47" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s">
         <v>12</v>
       </c>
-      <c r="U25" t="s">
-        <v>2</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="U47" t="s">
+        <v>2</v>
+      </c>
+      <c r="V47" t="s">
         <v>13</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W47" t="s">
         <v>8</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
-      <c r="A26">
+    <row r="48" spans="1:24">
+      <c r="A48">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C48" t="s">
         <v>15</v>
       </c>
-      <c r="D26" t="b">
+      <c r="D48" t="b">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>2</v>
+      </c>
+      <c r="K48" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" t="s">
         <v>8</v>
       </c>
-      <c r="N26" t="s">
-        <v>2</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="N48" t="s">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
         <v>6</v>
       </c>
-      <c r="P26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="P48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="s">
         <v>7</v>
       </c>
-      <c r="R26" t="s">
-        <v>2</v>
-      </c>
-      <c r="S26" t="s">
-        <v>11</v>
-      </c>
-      <c r="T26" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" t="s">
-        <v>2</v>
-      </c>
-      <c r="V26" t="s">
-        <v>16</v>
-      </c>
-      <c r="W26" t="s">
-        <v>16</v>
-      </c>
-      <c r="X26" t="s">
+      <c r="R48" t="s">
+        <v>2</v>
+      </c>
+      <c r="S48" t="s">
+        <v>11</v>
+      </c>
+      <c r="T48" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" t="s">
+        <v>2</v>
+      </c>
+      <c r="V48" t="s">
+        <v>16</v>
+      </c>
+      <c r="W48" t="s">
+        <v>16</v>
+      </c>
+      <c r="X48" t="s">
         <v>17</v>
       </c>
     </row>

--- a/resultatsEvscape.xlsx
+++ b/resultatsEvscape.xlsx
@@ -23,106 +23,106 @@
     <t>Khalid</t>
   </si>
   <si>
+    <t>responseA</t>
+  </si>
+  <si>
+    <t>Reponse2Spec1</t>
+  </si>
+  <si>
+    <t>reponseC</t>
+  </si>
+  <si>
+    <t>abstention</t>
+  </si>
+  <si>
+    <t>reponseB</t>
+  </si>
+  <si>
     <t>Reponse1Spec1</t>
   </si>
   <si>
-    <t>reponseB</t>
-  </si>
-  <si>
-    <t>abstention</t>
-  </si>
-  <si>
-    <t>responseA</t>
-  </si>
-  <si>
     <t>Reponse7Spec1</t>
   </si>
   <si>
-    <t>reponseC</t>
-  </si>
-  <si>
-    <t>Reponse2Spec1</t>
+    <t>Reponse8Spec1</t>
+  </si>
+  <si>
+    <t>Reponse9Spec1</t>
+  </si>
+  <si>
+    <t>Tozer</t>
+  </si>
+  <si>
+    <t>Elie</t>
   </si>
   <si>
     <t>Reponse3Spec1</t>
   </si>
   <si>
+    <t>Reponse4Spec1</t>
+  </si>
+  <si>
+    <t>Reponse10Spec1</t>
+  </si>
+  <si>
+    <t>Patricke</t>
+  </si>
+  <si>
+    <t>Kluivert</t>
+  </si>
+  <si>
+    <t>Patrke</t>
+  </si>
+  <si>
+    <t>Klert</t>
+  </si>
+  <si>
+    <t>Berrd</t>
+  </si>
+  <si>
+    <t>Aert</t>
+  </si>
+  <si>
+    <t>Lita</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
     <t>Reponse6Spec1</t>
   </si>
   <si>
-    <t>Reponse8Spec1</t>
-  </si>
-  <si>
-    <t>Reponse9Spec1</t>
-  </si>
-  <si>
     <t>toto</t>
   </si>
   <si>
     <t>litoe</t>
   </si>
   <si>
-    <t>Reponse4Spec1</t>
-  </si>
-  <si>
-    <t>Reponse10Spec1</t>
-  </si>
-  <si>
     <t>Gisele</t>
   </si>
   <si>
     <t>Giligi</t>
   </si>
   <si>
-    <t>Patricke</t>
-  </si>
-  <si>
-    <t>Kluivert</t>
+    <t>Reponse5Spec1</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>lie</t>
   </si>
   <si>
     <t>Gele</t>
   </si>
   <si>
     <t>Gigi</t>
-  </si>
-  <si>
-    <t>Reponse5Spec1</t>
-  </si>
-  <si>
-    <t>Berrd</t>
-  </si>
-  <si>
-    <t>Aert</t>
-  </si>
-  <si>
-    <t>Tozer</t>
-  </si>
-  <si>
-    <t>Elie</t>
-  </si>
-  <si>
-    <t>Lita</t>
-  </si>
-  <si>
-    <t>Zoe</t>
-  </si>
-  <si>
-    <t>Bernard</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>lie</t>
-  </si>
-  <si>
-    <t>Patrke</t>
-  </si>
-  <si>
-    <t>Klert</t>
   </si>
 </sst>
 </file>
@@ -454,158 +454,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A8:X12"/>
+  <dimension ref="A7:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="8" spans="1:24">
       <c r="A8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
         <v>10</v>
       </c>
-      <c r="K8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="T8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="V9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" t="s">
         <v>15</v>
-      </c>
-      <c r="S9" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" t="s">
-        <v>6</v>
-      </c>
-      <c r="V9" t="s">
-        <v>7</v>
-      </c>
-      <c r="W9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -622,31 +696,31 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" t="s">
         <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
         <v>5</v>
@@ -655,31 +729,31 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" t="s">
         <v>10</v>
       </c>
-      <c r="U10" t="s">
-        <v>6</v>
-      </c>
-      <c r="V10" t="s">
-        <v>11</v>
-      </c>
-      <c r="W10" t="s">
-        <v>4</v>
-      </c>
       <c r="X10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -696,69 +770,69 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J11" t="s">
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
         <v>7</v>
       </c>
       <c r="P11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R11" t="s">
         <v>5</v>
       </c>
       <c r="S11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="T11" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="U11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="X11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -770,64 +844,64 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O12" t="s">
         <v>7</v>
       </c>
       <c r="P12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" t="s">
         <v>9</v>
       </c>
-      <c r="R12" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" t="s">
-        <v>5</v>
-      </c>
-      <c r="U12" t="s">
-        <v>5</v>
-      </c>
-      <c r="V12" t="s">
-        <v>11</v>
-      </c>
       <c r="W12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +911,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X7"/>
+  <dimension ref="A2:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -863,69 +937,69 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
       <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>9</v>
       </c>
-      <c r="R2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>10</v>
       </c>
-      <c r="U2" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" t="s">
-        <v>12</v>
-      </c>
       <c r="X2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -934,72 +1008,72 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" t="s">
         <v>15</v>
-      </c>
-      <c r="S3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1011,69 +1085,69 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="V4" t="s">
         <v>9</v>
       </c>
-      <c r="R4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" t="s">
-        <v>4</v>
-      </c>
       <c r="W4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1082,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -1094,197 +1168,123 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" t="s">
         <v>10</v>
       </c>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" t="s">
-        <v>4</v>
-      </c>
-      <c r="U6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V6" t="s">
-        <v>11</v>
-      </c>
-      <c r="W6" t="s">
-        <v>4</v>
-      </c>
       <c r="X6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" t="s">
-        <v>4</v>
-      </c>
-      <c r="V7" t="s">
-        <v>11</v>
-      </c>
-      <c r="W7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/resultatsEvscape.xlsx
+++ b/resultatsEvscape.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="36">
   <si>
     <t>Boudlal</t>
   </si>
@@ -26,22 +26,79 @@
     <t>responseA</t>
   </si>
   <si>
+    <t>abstention</t>
+  </si>
+  <si>
     <t>reponseB</t>
   </si>
   <si>
-    <t>abstention</t>
+    <t>Reponse7Spec1</t>
   </si>
   <si>
     <t>Reponse8Spec1</t>
   </si>
   <si>
+    <t>reponseC</t>
+  </si>
+  <si>
+    <t>Reponse10Spec1</t>
+  </si>
+  <si>
+    <t>Lita</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Reponse2Spec1</t>
+  </si>
+  <si>
+    <t>Reponse3Spec1</t>
+  </si>
+  <si>
     <t>Reponse9Spec1</t>
   </si>
   <si>
-    <t>reponseC</t>
-  </si>
-  <si>
-    <t>Reponse7Spec1</t>
+    <t>Patricke</t>
+  </si>
+  <si>
+    <t>Kluivert</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Reponse4Spec1</t>
+  </si>
+  <si>
+    <t>Reponse5Spec1</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>Gele</t>
+  </si>
+  <si>
+    <t>Gigi</t>
+  </si>
+  <si>
+    <t>Reponse6Spec1</t>
+  </si>
+  <si>
+    <t>Berrd</t>
+  </si>
+  <si>
+    <t>Aert</t>
+  </si>
+  <si>
+    <t>Reponse1Spec1</t>
   </si>
   <si>
     <t>Tozer</t>
@@ -50,76 +107,22 @@
     <t>Elie</t>
   </si>
   <si>
-    <t>Reponse2Spec1</t>
-  </si>
-  <si>
-    <t>Lita</t>
-  </si>
-  <si>
-    <t>Zoe</t>
-  </si>
-  <si>
-    <t>Reponse1Spec1</t>
-  </si>
-  <si>
     <t>toto</t>
   </si>
   <si>
     <t>litoe</t>
   </si>
   <si>
-    <t>Reponse4Spec1</t>
-  </si>
-  <si>
-    <t>Reponse3Spec1</t>
-  </si>
-  <si>
     <t>Gisele</t>
   </si>
   <si>
     <t>Giligi</t>
   </si>
   <si>
-    <t>Reponse10Spec1</t>
-  </si>
-  <si>
-    <t>Patricke</t>
-  </si>
-  <si>
-    <t>Kluivert</t>
-  </si>
-  <si>
-    <t>Bernard</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>lie</t>
-  </si>
-  <si>
-    <t>Gele</t>
-  </si>
-  <si>
-    <t>Gigi</t>
-  </si>
-  <si>
     <t>Patrke</t>
   </si>
   <si>
     <t>Klert</t>
-  </si>
-  <si>
-    <t>Reponse5Spec1</t>
-  </si>
-  <si>
-    <t>Berrd</t>
-  </si>
-  <si>
-    <t>Aert</t>
   </si>
 </sst>
 </file>
@@ -459,64 +462,64 @@
   <sheetData>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="P9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="s">
         <v>4</v>
       </c>
       <c r="R9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U9" t="s">
         <v>4</v>
@@ -525,232 +528,232 @@
         <v>7</v>
       </c>
       <c r="W9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X10" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O11" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="S11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X11" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="P12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12" t="s">
         <v>3</v>
       </c>
       <c r="S12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V12" t="s">
         <v>4</v>
       </c>
       <c r="W12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -792,57 +795,57 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
         <v>3</v>
       </c>
       <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="V2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" t="s">
         <v>8</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -854,61 +857,61 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L3" t="s">
         <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P3" t="s">
         <v>11</v>
       </c>
       <c r="Q3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="X3" t="s">
         <v>3</v>
@@ -916,58 +919,58 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S4" t="s">
         <v>3</v>
@@ -976,27 +979,27 @@
         <v>4</v>
       </c>
       <c r="U4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1005,58 +1008,58 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="X5" t="s">
         <v>3</v>
@@ -1064,81 +1067,81 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1150,75 +1153,75 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U7" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" t="s">
         <v>8</v>
-      </c>
-      <c r="V7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1227,25 +1230,25 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M8" t="s">
         <v>2</v>
@@ -1254,34 +1257,34 @@
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="P8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S8" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X8" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/resultatsEvscape.xlsx
+++ b/resultatsEvscape.xlsx
@@ -17,31 +17,88 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="36">
   <si>
+    <t>Tozer</t>
+  </si>
+  <si>
+    <t>Elie</t>
+  </si>
+  <si>
+    <t>reponseB</t>
+  </si>
+  <si>
+    <t>abstention</t>
+  </si>
+  <si>
+    <t>Reponse3Spec1</t>
+  </si>
+  <si>
+    <t>responseA</t>
+  </si>
+  <si>
+    <t>reponseC</t>
+  </si>
+  <si>
+    <t>Reponse8Spec1</t>
+  </si>
+  <si>
+    <t>Reponse9Spec1</t>
+  </si>
+  <si>
+    <t>toto</t>
+  </si>
+  <si>
+    <t>litoe</t>
+  </si>
+  <si>
+    <t>Reponse1Spec1</t>
+  </si>
+  <si>
+    <t>Reponse10Spec1</t>
+  </si>
+  <si>
+    <t>Patricke</t>
+  </si>
+  <si>
+    <t>Kluivert</t>
+  </si>
+  <si>
+    <t>Reponse5Spec1</t>
+  </si>
+  <si>
+    <t>Reponse7Spec1</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Reponse2Spec1</t>
+  </si>
+  <si>
+    <t>Reponse6Spec1</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>Berrd</t>
+  </si>
+  <si>
+    <t>Aert</t>
+  </si>
+  <si>
     <t>Boudlal</t>
   </si>
   <si>
     <t>Khalid</t>
   </si>
   <si>
-    <t>responseA</t>
-  </si>
-  <si>
-    <t>abstention</t>
-  </si>
-  <si>
-    <t>reponseB</t>
-  </si>
-  <si>
-    <t>Reponse7Spec1</t>
-  </si>
-  <si>
-    <t>Reponse8Spec1</t>
-  </si>
-  <si>
-    <t>reponseC</t>
-  </si>
-  <si>
-    <t>Reponse10Spec1</t>
+    <t>Reponse4Spec1</t>
   </si>
   <si>
     <t>Lita</t>
@@ -50,73 +107,16 @@
     <t>Zoe</t>
   </si>
   <si>
-    <t>Reponse2Spec1</t>
-  </si>
-  <si>
-    <t>Reponse3Spec1</t>
-  </si>
-  <si>
-    <t>Reponse9Spec1</t>
-  </si>
-  <si>
-    <t>Patricke</t>
-  </si>
-  <si>
-    <t>Kluivert</t>
-  </si>
-  <si>
-    <t>Bernard</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>Reponse4Spec1</t>
-  </si>
-  <si>
-    <t>Reponse5Spec1</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>lie</t>
+    <t>Gisele</t>
+  </si>
+  <si>
+    <t>Giligi</t>
   </si>
   <si>
     <t>Gele</t>
   </si>
   <si>
     <t>Gigi</t>
-  </si>
-  <si>
-    <t>Reponse6Spec1</t>
-  </si>
-  <si>
-    <t>Berrd</t>
-  </si>
-  <si>
-    <t>Aert</t>
-  </si>
-  <si>
-    <t>Reponse1Spec1</t>
-  </si>
-  <si>
-    <t>Tozer</t>
-  </si>
-  <si>
-    <t>Elie</t>
-  </si>
-  <si>
-    <t>toto</t>
-  </si>
-  <si>
-    <t>litoe</t>
-  </si>
-  <si>
-    <t>Gisele</t>
-  </si>
-  <si>
-    <t>Giligi</t>
   </si>
   <si>
     <t>Patrke</t>
@@ -454,15 +454,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A9:X12"/>
+  <dimension ref="A8:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -474,40 +548,40 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M9" t="s">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="P9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="s">
         <v>4</v>
@@ -516,27 +590,27 @@
         <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U9" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="V9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -548,69 +622,69 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>2</v>
       </c>
       <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" t="s">
-        <v>11</v>
-      </c>
       <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" t="s">
         <v>12</v>
-      </c>
-      <c r="R10" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U10" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" t="s">
-        <v>3</v>
-      </c>
-      <c r="W10" t="s">
-        <v>2</v>
-      </c>
-      <c r="X10" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -628,58 +702,58 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" t="s">
         <v>4</v>
       </c>
-      <c r="I11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11" t="s">
         <v>7</v>
       </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="W11" t="s">
         <v>8</v>
       </c>
-      <c r="O11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V11" t="s">
-        <v>6</v>
-      </c>
-      <c r="W11" t="s">
-        <v>3</v>
-      </c>
       <c r="X11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -696,13 +770,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
         <v>2</v>
@@ -711,49 +785,49 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="O12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s">
         <v>27</v>
       </c>
-      <c r="P12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T12" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="U12" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="V12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +837,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X8"/>
+  <dimension ref="A2:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -771,7 +845,7 @@
   <sheetData>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -786,41 +860,41 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>3</v>
-      </c>
       <c r="R2" t="s">
         <v>3</v>
       </c>
@@ -828,24 +902,24 @@
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -860,61 +934,61 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" t="s">
         <v>12</v>
-      </c>
-      <c r="R3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -922,31 +996,31 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
@@ -955,40 +1029,40 @@
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="V4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -996,10 +1070,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1008,58 +1082,58 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" t="s">
         <v>7</v>
       </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" t="s">
-        <v>6</v>
-      </c>
       <c r="W5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="X5" t="s">
         <v>3</v>
@@ -1070,53 +1144,53 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
         <v>4</v>
       </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>2</v>
-      </c>
       <c r="R6" t="s">
         <v>3</v>
       </c>
@@ -1133,158 +1207,84 @@
         <v>6</v>
       </c>
       <c r="W6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" t="s">
         <v>7</v>
       </c>
-      <c r="N7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="W7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" t="s">
         <v>12</v>
-      </c>
-      <c r="R7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" t="s">
-        <v>4</v>
-      </c>
-      <c r="U7" t="s">
-        <v>5</v>
-      </c>
-      <c r="V7" t="s">
-        <v>3</v>
-      </c>
-      <c r="W7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V8" t="s">
-        <v>6</v>
-      </c>
-      <c r="W8" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/resultatsEvscape.xlsx
+++ b/resultatsEvscape.xlsx
@@ -454,453 +454,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A271:X276"/>
+  <dimension ref="A29:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="271" spans="1:24">
-      <c r="A271">
+    <row r="29" spans="1:24">
+      <c r="A29">
         <v>2</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C29" t="s">
         <v>24</v>
       </c>
-      <c r="D271" t="b">
+      <c r="D29" t="b">
         <v>0</v>
       </c>
-      <c r="E271" t="s">
-        <v>4</v>
-      </c>
-      <c r="F271" t="s">
-        <v>3</v>
-      </c>
-      <c r="G271" t="s">
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
         <v>7</v>
       </c>
-      <c r="H271" t="s">
-        <v>3</v>
-      </c>
-      <c r="I271" t="s">
-        <v>4</v>
-      </c>
-      <c r="J271" t="s">
-        <v>8</v>
-      </c>
-      <c r="K271" t="s">
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
         <v>6</v>
       </c>
-      <c r="L271" t="s">
-        <v>4</v>
-      </c>
-      <c r="M271" t="s">
-        <v>4</v>
-      </c>
-      <c r="N271" t="s">
-        <v>3</v>
-      </c>
-      <c r="O271" t="s">
-        <v>3</v>
-      </c>
-      <c r="P271" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q271" t="s">
+      <c r="L29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s">
         <v>7</v>
       </c>
-      <c r="R271" t="s">
-        <v>3</v>
-      </c>
-      <c r="S271" t="s">
-        <v>3</v>
-      </c>
-      <c r="T271" t="s">
-        <v>3</v>
-      </c>
-      <c r="U271" t="s">
+      <c r="R29" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" t="s">
         <v>6</v>
       </c>
-      <c r="V271" t="s">
-        <v>8</v>
-      </c>
-      <c r="W271" t="s">
-        <v>5</v>
-      </c>
-      <c r="X271" t="s">
+      <c r="V29" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:24">
-      <c r="A272">
-        <v>3</v>
-      </c>
-      <c r="B272" t="s">
+    <row r="30" spans="1:24">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C30" t="s">
         <v>26</v>
       </c>
-      <c r="D272" t="b">
+      <c r="D30" t="b">
         <v>0</v>
       </c>
-      <c r="E272" t="s">
-        <v>3</v>
-      </c>
-      <c r="F272" t="s">
-        <v>3</v>
-      </c>
-      <c r="G272" t="s">
-        <v>3</v>
-      </c>
-      <c r="H272" t="s">
-        <v>3</v>
-      </c>
-      <c r="I272" t="s">
-        <v>3</v>
-      </c>
-      <c r="J272" t="s">
-        <v>4</v>
-      </c>
-      <c r="K272" t="s">
-        <v>3</v>
-      </c>
-      <c r="L272" t="s">
-        <v>8</v>
-      </c>
-      <c r="M272" t="s">
-        <v>3</v>
-      </c>
-      <c r="N272" t="s">
-        <v>3</v>
-      </c>
-      <c r="O272" t="s">
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
         <v>2</v>
       </c>
-      <c r="P272" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q272" t="s">
+      <c r="P30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q30" t="s">
         <v>7</v>
       </c>
-      <c r="R272" t="s">
-        <v>3</v>
-      </c>
-      <c r="S272" t="s">
-        <v>3</v>
-      </c>
-      <c r="T272" t="s">
+      <c r="R30" t="s">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s">
         <v>27</v>
       </c>
-      <c r="U272" t="s">
+      <c r="U30" t="s">
         <v>6</v>
       </c>
-      <c r="V272" t="s">
+      <c r="V30" t="s">
         <v>22</v>
       </c>
-      <c r="W272" t="s">
-        <v>5</v>
-      </c>
-      <c r="X272" t="s">
+      <c r="W30" t="s">
+        <v>5</v>
+      </c>
+      <c r="X30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:24">
-      <c r="A273">
-        <v>4</v>
-      </c>
-      <c r="B273" t="s">
+    <row r="31" spans="1:24">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C31" t="s">
         <v>29</v>
       </c>
-      <c r="D273" t="b">
+      <c r="D31" t="b">
         <v>0</v>
       </c>
-      <c r="E273" t="s">
-        <v>5</v>
-      </c>
-      <c r="F273" t="s">
-        <v>5</v>
-      </c>
-      <c r="G273" t="s">
-        <v>3</v>
-      </c>
-      <c r="H273" t="s">
-        <v>4</v>
-      </c>
-      <c r="I273" t="s">
-        <v>5</v>
-      </c>
-      <c r="J273" t="s">
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
         <v>27</v>
       </c>
-      <c r="K273" t="s">
-        <v>3</v>
-      </c>
-      <c r="L273" t="s">
-        <v>4</v>
-      </c>
-      <c r="M273" t="s">
-        <v>4</v>
-      </c>
-      <c r="N273" t="s">
+      <c r="K31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
         <v>16</v>
       </c>
-      <c r="O273" t="s">
+      <c r="O31" t="s">
         <v>2</v>
       </c>
-      <c r="P273" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q273" t="s">
-        <v>8</v>
-      </c>
-      <c r="R273" t="s">
-        <v>4</v>
-      </c>
-      <c r="S273" t="s">
-        <v>8</v>
-      </c>
-      <c r="T273" t="s">
-        <v>5</v>
-      </c>
-      <c r="U273" t="s">
+      <c r="P31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>8</v>
+      </c>
+      <c r="R31" t="s">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>8</v>
+      </c>
+      <c r="T31" t="s">
+        <v>5</v>
+      </c>
+      <c r="U31" t="s">
         <v>6</v>
       </c>
-      <c r="V273" t="s">
+      <c r="V31" t="s">
         <v>22</v>
       </c>
-      <c r="W273" t="s">
-        <v>5</v>
-      </c>
-      <c r="X273" t="s">
+      <c r="W31" t="s">
+        <v>5</v>
+      </c>
+      <c r="X31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:24">
-      <c r="A274">
-        <v>8</v>
-      </c>
-      <c r="B274" t="s">
+    <row r="32" spans="1:24">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="D274" t="b">
+      <c r="D32" t="b">
         <v>0</v>
       </c>
-      <c r="E274" t="s">
-        <v>3</v>
-      </c>
-      <c r="F274" t="s">
-        <v>3</v>
-      </c>
-      <c r="G274" t="s">
-        <v>4</v>
-      </c>
-      <c r="H274" t="s">
-        <v>3</v>
-      </c>
-      <c r="I274" t="s">
-        <v>3</v>
-      </c>
-      <c r="J274" t="s">
-        <v>3</v>
-      </c>
-      <c r="K274" t="s">
-        <v>3</v>
-      </c>
-      <c r="L274" t="s">
-        <v>5</v>
-      </c>
-      <c r="M274" t="s">
-        <v>3</v>
-      </c>
-      <c r="N274" t="s">
-        <v>3</v>
-      </c>
-      <c r="O274" t="s">
-        <v>4</v>
-      </c>
-      <c r="P274" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q274" t="s">
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" t="s">
         <v>7</v>
       </c>
-      <c r="R274" t="s">
-        <v>5</v>
-      </c>
-      <c r="S274" t="s">
-        <v>5</v>
-      </c>
-      <c r="T274" t="s">
-        <v>4</v>
-      </c>
-      <c r="U274" t="s">
-        <v>3</v>
-      </c>
-      <c r="V274" t="s">
+      <c r="R32" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" t="s">
         <v>22</v>
       </c>
-      <c r="W274" t="s">
-        <v>5</v>
-      </c>
-      <c r="X274" t="s">
+      <c r="W32" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:24">
-      <c r="A275">
+    <row r="33" spans="1:24">
+      <c r="A33">
         <v>10</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C33" t="s">
         <v>33</v>
       </c>
-      <c r="D275" t="b">
+      <c r="D33" t="b">
         <v>0</v>
       </c>
-      <c r="E275" t="s">
-        <v>4</v>
-      </c>
-      <c r="F275" t="s">
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
         <v>12</v>
       </c>
-      <c r="G275" t="s">
-        <v>5</v>
-      </c>
-      <c r="H275" t="s">
-        <v>4</v>
-      </c>
-      <c r="I275" t="s">
-        <v>3</v>
-      </c>
-      <c r="J275" t="s">
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
         <v>27</v>
       </c>
-      <c r="K275" t="s">
+      <c r="K33" t="s">
         <v>6</v>
       </c>
-      <c r="L275" t="s">
-        <v>3</v>
-      </c>
-      <c r="M275" t="s">
-        <v>3</v>
-      </c>
-      <c r="N275" t="s">
-        <v>3</v>
-      </c>
-      <c r="O275" t="s">
-        <v>5</v>
-      </c>
-      <c r="P275" t="s">
+      <c r="L33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" t="s">
         <v>12</v>
       </c>
-      <c r="Q275" t="s">
-        <v>4</v>
-      </c>
-      <c r="R275" t="s">
+      <c r="Q33" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s">
         <v>11</v>
       </c>
-      <c r="S275" t="s">
-        <v>3</v>
-      </c>
-      <c r="T275" t="s">
-        <v>8</v>
-      </c>
-      <c r="U275" t="s">
+      <c r="S33" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" t="s">
         <v>6</v>
       </c>
-      <c r="V275" t="s">
+      <c r="V33" t="s">
         <v>22</v>
       </c>
-      <c r="W275" t="s">
+      <c r="W33" t="s">
         <v>13</v>
       </c>
-      <c r="X275" t="s">
+      <c r="X33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:24">
-      <c r="A276">
+    <row r="34" spans="1:24">
+      <c r="A34">
         <v>12</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="D276" t="b">
+      <c r="D34" t="b">
         <v>0</v>
       </c>
-      <c r="E276" t="s">
-        <v>3</v>
-      </c>
-      <c r="F276" t="s">
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
         <v>12</v>
       </c>
-      <c r="G276" t="s">
+      <c r="G34" t="s">
         <v>7</v>
       </c>
-      <c r="H276" t="s">
-        <v>3</v>
-      </c>
-      <c r="I276" t="s">
-        <v>3</v>
-      </c>
-      <c r="J276" t="s">
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
         <v>27</v>
       </c>
-      <c r="K276" t="s">
-        <v>5</v>
-      </c>
-      <c r="L276" t="s">
-        <v>4</v>
-      </c>
-      <c r="M276" t="s">
+      <c r="K34" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" t="s">
         <v>13</v>
       </c>
-      <c r="N276" t="s">
+      <c r="N34" t="s">
         <v>16</v>
       </c>
-      <c r="O276" t="s">
-        <v>3</v>
-      </c>
-      <c r="P276" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q276" t="s">
+      <c r="O34" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q34" t="s">
         <v>7</v>
       </c>
-      <c r="R276" t="s">
-        <v>5</v>
-      </c>
-      <c r="S276" t="s">
+      <c r="R34" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s">
         <v>21</v>
       </c>
-      <c r="T276" t="s">
+      <c r="T34" t="s">
         <v>27</v>
       </c>
-      <c r="U276" t="s">
-        <v>8</v>
-      </c>
-      <c r="V276" t="s">
-        <v>4</v>
-      </c>
-      <c r="W276" t="s">
+      <c r="U34" t="s">
+        <v>8</v>
+      </c>
+      <c r="V34" t="s">
+        <v>4</v>
+      </c>
+      <c r="W34" t="s">
         <v>13</v>
       </c>
-      <c r="X276" t="s">
+      <c r="X34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -911,379 +911,379 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A266:X270"/>
+  <dimension ref="A24:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="266" spans="1:24">
-      <c r="A266">
-        <v>5</v>
-      </c>
-      <c r="B266" t="s">
+    <row r="24" spans="1:24">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
         <v>0</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C24" t="s">
         <v>1</v>
       </c>
-      <c r="D266" t="b">
+      <c r="D24" t="b">
         <v>1</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E24" t="s">
         <v>2</v>
       </c>
-      <c r="F266" t="s">
-        <v>3</v>
-      </c>
-      <c r="G266" t="s">
-        <v>4</v>
-      </c>
-      <c r="H266" t="s">
-        <v>3</v>
-      </c>
-      <c r="I266" t="s">
-        <v>4</v>
-      </c>
-      <c r="J266" t="s">
-        <v>5</v>
-      </c>
-      <c r="K266" t="s">
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
         <v>6</v>
       </c>
-      <c r="L266" t="s">
-        <v>3</v>
-      </c>
-      <c r="M266" t="s">
-        <v>3</v>
-      </c>
-      <c r="N266" t="s">
-        <v>5</v>
-      </c>
-      <c r="O266" t="s">
-        <v>3</v>
-      </c>
-      <c r="P266" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q266" t="s">
+      <c r="L24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s">
         <v>7</v>
       </c>
-      <c r="R266" t="s">
-        <v>8</v>
-      </c>
-      <c r="S266" t="s">
-        <v>8</v>
-      </c>
-      <c r="T266" t="s">
-        <v>3</v>
-      </c>
-      <c r="U266" t="s">
+      <c r="R24" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" t="s">
         <v>6</v>
       </c>
-      <c r="V266" t="s">
-        <v>3</v>
-      </c>
-      <c r="W266" t="s">
-        <v>4</v>
-      </c>
-      <c r="X266" t="s">
+      <c r="V24" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:24">
-      <c r="A267">
+    <row r="25" spans="1:24">
+      <c r="A25">
         <v>6</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D267" t="b">
+      <c r="D25" t="b">
         <v>1</v>
       </c>
-      <c r="E267" t="s">
-        <v>3</v>
-      </c>
-      <c r="F267" t="s">
-        <v>3</v>
-      </c>
-      <c r="G267" t="s">
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
         <v>7</v>
       </c>
-      <c r="H267" t="s">
+      <c r="H25" t="s">
         <v>11</v>
       </c>
-      <c r="I267" t="s">
-        <v>3</v>
-      </c>
-      <c r="J267" t="s">
-        <v>3</v>
-      </c>
-      <c r="K267" t="s">
-        <v>3</v>
-      </c>
-      <c r="L267" t="s">
-        <v>3</v>
-      </c>
-      <c r="M267" t="s">
-        <v>3</v>
-      </c>
-      <c r="N267" t="s">
-        <v>3</v>
-      </c>
-      <c r="O267" t="s">
-        <v>8</v>
-      </c>
-      <c r="P267" t="s">
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" t="s">
         <v>12</v>
       </c>
-      <c r="Q267" t="s">
+      <c r="Q25" t="s">
         <v>7</v>
       </c>
-      <c r="R267" t="s">
-        <v>4</v>
-      </c>
-      <c r="S267" t="s">
-        <v>3</v>
-      </c>
-      <c r="T267" t="s">
-        <v>5</v>
-      </c>
-      <c r="U267" t="s">
+      <c r="R25" t="s">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U25" t="s">
         <v>6</v>
       </c>
-      <c r="V267" t="s">
-        <v>4</v>
-      </c>
-      <c r="W267" t="s">
+      <c r="V25" t="s">
+        <v>4</v>
+      </c>
+      <c r="W25" t="s">
         <v>13</v>
       </c>
-      <c r="X267" t="s">
+      <c r="X25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:24">
-      <c r="A268">
+    <row r="26" spans="1:24">
+      <c r="A26">
         <v>7</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D268" t="b">
+      <c r="D26" t="b">
         <v>1</v>
       </c>
-      <c r="E268" t="s">
-        <v>5</v>
-      </c>
-      <c r="F268" t="s">
-        <v>3</v>
-      </c>
-      <c r="G268" t="s">
-        <v>8</v>
-      </c>
-      <c r="H268" t="s">
-        <v>3</v>
-      </c>
-      <c r="I268" t="s">
-        <v>5</v>
-      </c>
-      <c r="J268" t="s">
-        <v>5</v>
-      </c>
-      <c r="K268" t="s">
-        <v>3</v>
-      </c>
-      <c r="L268" t="s">
-        <v>3</v>
-      </c>
-      <c r="M268" t="s">
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" t="s">
         <v>13</v>
       </c>
-      <c r="N268" t="s">
-        <v>5</v>
-      </c>
-      <c r="O268" t="s">
+      <c r="N26" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" t="s">
         <v>2</v>
       </c>
-      <c r="P268" t="s">
+      <c r="P26" t="s">
         <v>12</v>
       </c>
-      <c r="Q268" t="s">
+      <c r="Q26" t="s">
         <v>7</v>
       </c>
-      <c r="R268" t="s">
-        <v>3</v>
-      </c>
-      <c r="S268" t="s">
-        <v>4</v>
-      </c>
-      <c r="T268" t="s">
-        <v>3</v>
-      </c>
-      <c r="U268" t="s">
-        <v>3</v>
-      </c>
-      <c r="V268" t="s">
-        <v>3</v>
-      </c>
-      <c r="W268" t="s">
-        <v>3</v>
-      </c>
-      <c r="X268" t="s">
+      <c r="R26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:24">
-      <c r="A269">
+    <row r="27" spans="1:24">
+      <c r="A27">
         <v>9</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D269" t="b">
+      <c r="D27" t="b">
         <v>1</v>
       </c>
-      <c r="E269" t="s">
-        <v>5</v>
-      </c>
-      <c r="F269" t="s">
-        <v>3</v>
-      </c>
-      <c r="G269" t="s">
-        <v>5</v>
-      </c>
-      <c r="H269" t="s">
-        <v>3</v>
-      </c>
-      <c r="I269" t="s">
-        <v>5</v>
-      </c>
-      <c r="J269" t="s">
-        <v>5</v>
-      </c>
-      <c r="K269" t="s">
-        <v>3</v>
-      </c>
-      <c r="L269" t="s">
-        <v>8</v>
-      </c>
-      <c r="M269" t="s">
-        <v>3</v>
-      </c>
-      <c r="N269" t="s">
-        <v>5</v>
-      </c>
-      <c r="O269" t="s">
-        <v>4</v>
-      </c>
-      <c r="P269" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q269" t="s">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s">
         <v>7</v>
       </c>
-      <c r="R269" t="s">
+      <c r="R27" t="s">
         <v>11</v>
       </c>
-      <c r="S269" t="s">
-        <v>3</v>
-      </c>
-      <c r="T269" t="s">
-        <v>3</v>
-      </c>
-      <c r="U269" t="s">
+      <c r="S27" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" t="s">
         <v>6</v>
       </c>
-      <c r="V269" t="s">
-        <v>3</v>
-      </c>
-      <c r="W269" t="s">
-        <v>8</v>
-      </c>
-      <c r="X269" t="s">
+      <c r="V27" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" t="s">
+        <v>8</v>
+      </c>
+      <c r="X27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:24">
-      <c r="A270">
+    <row r="28" spans="1:24">
+      <c r="A28">
         <v>11</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D270" t="b">
+      <c r="D28" t="b">
         <v>1</v>
       </c>
-      <c r="E270" t="s">
-        <v>3</v>
-      </c>
-      <c r="F270" t="s">
-        <v>5</v>
-      </c>
-      <c r="G270" t="s">
-        <v>8</v>
-      </c>
-      <c r="H270" t="s">
-        <v>3</v>
-      </c>
-      <c r="I270" t="s">
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
         <v>21</v>
       </c>
-      <c r="J270" t="s">
-        <v>3</v>
-      </c>
-      <c r="K270" t="s">
-        <v>4</v>
-      </c>
-      <c r="L270" t="s">
-        <v>8</v>
-      </c>
-      <c r="M270" t="s">
-        <v>3</v>
-      </c>
-      <c r="N270" t="s">
-        <v>4</v>
-      </c>
-      <c r="O270" t="s">
+      <c r="J28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
         <v>2</v>
       </c>
-      <c r="P270" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q270" t="s">
-        <v>3</v>
-      </c>
-      <c r="R270" t="s">
-        <v>3</v>
-      </c>
-      <c r="S270" t="s">
-        <v>4</v>
-      </c>
-      <c r="T270" t="s">
-        <v>5</v>
-      </c>
-      <c r="U270" t="s">
+      <c r="P28" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s">
+        <v>5</v>
+      </c>
+      <c r="U28" t="s">
         <v>6</v>
       </c>
-      <c r="V270" t="s">
+      <c r="V28" t="s">
         <v>22</v>
       </c>
-      <c r="W270" t="s">
+      <c r="W28" t="s">
         <v>13</v>
       </c>
-      <c r="X270" t="s">
+      <c r="X28" t="s">
         <v>3</v>
       </c>
     </row>
